--- a/Acessos.xlsx
+++ b/Acessos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unosilva\Documents\Projeto Meli Awards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6EA1AD-2038-490B-8E48-0E460D2EB21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3205E07-BF73-43D6-8D61-8004D5E6B9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F6876E12-98B3-4F33-AF0F-22A5C1C00DD2}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Categorias" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acessos!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acessos!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Categorias!$A$1:$B$334</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="356">
   <si>
     <t>E-mail</t>
   </si>
@@ -1097,16 +1097,35 @@
   </si>
   <si>
     <t>Teste</t>
+  </si>
+  <si>
+    <t>Teste1</t>
+  </si>
+  <si>
+    <t>Teste2</t>
+  </si>
+  <si>
+    <t>Senha</t>
+  </si>
+  <si>
+    <t>Teste3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1132,8 +1151,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1468,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2939FEBB-D56D-4D0D-8366-6ACEEBE32804}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1479,7 +1499,7 @@
     <col min="1" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1489,8 +1509,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1498,23 +1521,23 @@
         <v>348</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>346</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>351</v>
       </c>
       <c r="B4" t="s">
         <v>349</v>
@@ -1523,30 +1546,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>352</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B6" t="s">
         <v>349</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C7" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{2939FEBB-D56D-4D0D-8366-6ACEEBE32804}"/>
+  <autoFilter ref="A1:D1" xr:uid="{2939FEBB-D56D-4D0D-8366-6ACEEBE32804}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -1555,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CC248E-3C21-4DCC-815C-0A279EC017CB}">
   <dimension ref="A1:B334"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Acessos.xlsx
+++ b/Acessos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unosilva\Documents\Projeto Meli Awards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3205E07-BF73-43D6-8D61-8004D5E6B9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2598290-E7DB-4286-A9B1-368C459CB48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F6876E12-98B3-4F33-AF0F-22A5C1C00DD2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6876E12-98B3-4F33-AF0F-22A5C1C00DD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Acessos" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="292">
   <si>
     <t>E-mail</t>
   </si>
@@ -85,72 +85,18 @@
     <t>CTX MLB</t>
   </si>
   <si>
-    <t>ATE</t>
-  </si>
-  <si>
-    <t>TP</t>
-  </si>
-  <si>
     <t>AeC</t>
   </si>
   <si>
     <t>COMMERCIAL CARRIERS</t>
   </si>
   <si>
-    <t>(CORREIOS) EMPRESA BRASILEIRA DE CORREIOS E TELÉGRAFOS</t>
-  </si>
-  <si>
-    <t>(LOGGI) L4B LOGISTICA LTDA</t>
-  </si>
-  <si>
-    <t>COOPERATIVA REDE SUL DE LOGISTICA LTDA</t>
-  </si>
-  <si>
-    <t>SEQUOIA LOGISTICA E TRANSPORTES S.A</t>
-  </si>
-  <si>
-    <t>JADLOG LOGISTICA S.A</t>
-  </si>
-  <si>
-    <t>FEDEX BRASIL LOGÍSTICA E TRANSPORTE LTDA</t>
-  </si>
-  <si>
-    <t>CARVALIMA TRANSPORTES LTDA</t>
-  </si>
-  <si>
-    <t>CARRIERS LOGISTICA E TRANSPORTE LTDA</t>
-  </si>
-  <si>
-    <t>MANUTENÇAO</t>
-  </si>
-  <si>
     <t>LEADEC SERVICOS INDUSTRIAIS DO BRASIL</t>
   </si>
   <si>
     <t>(GPS) IN HAUS INDUSTRIAL E SERVIÇOS DE LOGÍSTICA LTDA.</t>
   </si>
   <si>
-    <t>Tecnogera Locacao e transformacao</t>
-  </si>
-  <si>
-    <t>(THORIO) TH 232 CONSULTORIA E LOCAÇÃO DE GERADORES</t>
-  </si>
-  <si>
-    <t>ESSENCIAL SOLUÇÕES TÉCNICAS LTDA</t>
-  </si>
-  <si>
-    <t>FACILITIES</t>
-  </si>
-  <si>
-    <t>BR Spply</t>
-  </si>
-  <si>
-    <t>LI DE ARAUJO SERVICOS PATRIMONIAIS</t>
-  </si>
-  <si>
-    <t>ARTPLAN COMERCIAL LTDA</t>
-  </si>
-  <si>
     <t>G4S</t>
   </si>
   <si>
@@ -160,9 +106,6 @@
     <t>OSESP</t>
   </si>
   <si>
-    <t>GRAN COFFEE COMERCIO LOCACAO</t>
-  </si>
-  <si>
     <t>FDVT FORÇA DE VENDAS</t>
   </si>
   <si>
@@ -193,84 +136,12 @@
     <t>GRUPO PICINATO</t>
   </si>
   <si>
-    <t>NONNA TERCEIRIZACAO DE SERVICOS LTD</t>
-  </si>
-  <si>
-    <t>MK9 TRADE</t>
-  </si>
-  <si>
     <t>FIRST MILE</t>
   </si>
   <si>
-    <t>(ALC) ANDRE LUIZ NEVES DA COSTA</t>
-  </si>
-  <si>
-    <t>AC2 LOGISTICA EIRELI</t>
-  </si>
-  <si>
-    <t>BASEPEX ENCOMENDAS URGENTES EIRELI</t>
-  </si>
-  <si>
-    <t>BGN NIKIMBA TRANSPORTE LTDA</t>
-  </si>
-  <si>
-    <t>BLD LOGISTICA LTDA</t>
-  </si>
-  <si>
-    <t>COMPANHIA CAXIENSE DE TRANSPORTE E LOGISTICA LTDA</t>
-  </si>
-  <si>
-    <t>(DDL) M D SOUZA INTERMEDIACOES DE NEGOCIOS LTDA</t>
-  </si>
-  <si>
-    <t>(DHL) UNIDOCK’S ASSESSORIA E LOGÍSTICA DE MATERIAIS LTDA</t>
-  </si>
-  <si>
-    <t>FLYPACK TRANSPORTE E LOGISTICA LTDA</t>
-  </si>
-  <si>
-    <t>HAWK TRANSPORTES LTDA</t>
-  </si>
-  <si>
-    <t>TRANSPORTES IMEDIATO LTDA</t>
-  </si>
-  <si>
-    <t>JM TRANSPORTES E DISTRIBUICAO LTDA</t>
-  </si>
-  <si>
     <t>LOG STOPASSOLLI TRANSPORTES LTDA</t>
   </si>
   <si>
-    <t>TRANSMARONI TRANSPORTES BRASIL RODOVIÁRIOS LTDA</t>
-  </si>
-  <si>
-    <t>MURICI TRANSPORTES E LOGISTICA EIRELI</t>
-  </si>
-  <si>
-    <t>ONTIME EXPRESS LOGÍSTICA E TRANSPORTES S.A</t>
-  </si>
-  <si>
-    <t>PANTERA LOG TRANSPORTES E LOGISTICA LTDA</t>
-  </si>
-  <si>
-    <t>PARCEIRO SPOT SOLUÇÕES LTDA</t>
-  </si>
-  <si>
-    <t>PRA LOG TRANSPORTES E SERVIÇOS LTDA</t>
-  </si>
-  <si>
-    <t>PROTEGE CARGO</t>
-  </si>
-  <si>
-    <t>(RODACOOP) COOPERATIVA DOS TRANSPORTADORES AUTONOMOS DE CARGAS, PASSAGEIROS E SERVICOS DE LOGISTICA LTDA</t>
-  </si>
-  <si>
-    <t>EDUARDO SMOLKA DE FARIA VS EXPRESS LIMITADA</t>
-  </si>
-  <si>
-    <t>TORRES TRANSPORTES LTDA</t>
-  </si>
-  <si>
     <t>FLYERS</t>
   </si>
   <si>
@@ -304,15 +175,9 @@
     <t>Fretadão</t>
   </si>
   <si>
-    <t>Stylle Turismo</t>
-  </si>
-  <si>
     <t>D'Pradus</t>
   </si>
   <si>
-    <t>Kari fretados</t>
-  </si>
-  <si>
     <t>Azzatur | Azevedo &amp; Castro</t>
   </si>
   <si>
@@ -358,9 +223,6 @@
     <t>Cherantola</t>
   </si>
   <si>
-    <t>Essencial</t>
-  </si>
-  <si>
     <t>LAST MILE</t>
   </si>
   <si>
@@ -373,321 +235,27 @@
     <t>Hawk Transportes</t>
   </si>
   <si>
-    <t>BRJ</t>
-  </si>
-  <si>
-    <t>Basepex Encomendas</t>
-  </si>
-  <si>
-    <t>BLD Logística</t>
-  </si>
-  <si>
-    <t>CoopMetro</t>
-  </si>
-  <si>
     <t>DHL</t>
   </si>
   <si>
-    <t>PRA Log</t>
-  </si>
-  <si>
-    <t>Parceiro Spot</t>
-  </si>
-  <si>
-    <t>ALC</t>
-  </si>
-  <si>
     <t>MSR</t>
   </si>
   <si>
-    <t>AltoVale</t>
-  </si>
-  <si>
-    <t>Panterta Log</t>
-  </si>
-  <si>
-    <t>TransMana</t>
-  </si>
-  <si>
     <t>Flight Cargo</t>
   </si>
   <si>
-    <t>ADO Transportadora</t>
-  </si>
-  <si>
-    <t>Ontime</t>
-  </si>
-  <si>
-    <t>Atitude</t>
-  </si>
-  <si>
-    <t>BGN Nikimba</t>
-  </si>
-  <si>
-    <t>AC2 Logística</t>
-  </si>
-  <si>
-    <t>WLS Cargo</t>
-  </si>
-  <si>
-    <t>Torres Transportes</t>
-  </si>
-  <si>
-    <t>Eco Express</t>
-  </si>
-  <si>
-    <t>DeCargo</t>
-  </si>
-  <si>
-    <t>50 Mais</t>
-  </si>
-  <si>
-    <t>Coomap</t>
-  </si>
-  <si>
-    <t>DeLuna</t>
-  </si>
-  <si>
-    <t>Espíndola</t>
-  </si>
-  <si>
     <t>Smolka</t>
   </si>
   <si>
-    <t>Log Serviços</t>
-  </si>
-  <si>
-    <t>Bravox</t>
-  </si>
-  <si>
-    <t>Nikkey</t>
-  </si>
-  <si>
     <t>JM Transportes</t>
   </si>
   <si>
-    <t>Rede Frete</t>
-  </si>
-  <si>
-    <t>Transitario Log</t>
-  </si>
-  <si>
-    <t>DDL</t>
-  </si>
-  <si>
-    <t>Log Soluções</t>
-  </si>
-  <si>
-    <t>Entrevias Express</t>
-  </si>
-  <si>
-    <t>E-Log</t>
-  </si>
-  <si>
-    <t>Renner</t>
-  </si>
-  <si>
-    <t>Faster Log</t>
-  </si>
-  <si>
-    <t>JL Castro</t>
-  </si>
-  <si>
-    <t>DL Logística</t>
-  </si>
-  <si>
-    <t>M. J. Transportes</t>
-  </si>
-  <si>
-    <t>Logstopassolli</t>
-  </si>
-  <si>
-    <t>Rodalog</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>3 A BRASIL</t>
-  </si>
-  <si>
-    <t>Motatur Turismo</t>
-  </si>
-  <si>
-    <t>PrataLog</t>
-  </si>
-  <si>
-    <t>DFA</t>
-  </si>
-  <si>
-    <t>Flypack</t>
-  </si>
-  <si>
-    <t>Move</t>
-  </si>
-  <si>
-    <t>Help Me Soluções</t>
-  </si>
-  <si>
-    <t>Juliana Aparecida</t>
-  </si>
-  <si>
-    <t>Única Transportes</t>
-  </si>
-  <si>
-    <t>CargoBR</t>
-  </si>
-  <si>
-    <t>T2C</t>
-  </si>
-  <si>
-    <t>Lets Express</t>
-  </si>
-  <si>
-    <t>Ramponi</t>
-  </si>
-  <si>
-    <t>RSC</t>
-  </si>
-  <si>
-    <t>Transdelevati</t>
-  </si>
-  <si>
-    <t>Provisyon</t>
-  </si>
-  <si>
-    <t>Caxiense</t>
-  </si>
-  <si>
-    <t>Bem Log</t>
-  </si>
-  <si>
-    <t>Nave Transporte</t>
-  </si>
-  <si>
-    <t>Avante Transportes</t>
-  </si>
-  <si>
-    <t>Fast Norte Courier</t>
-  </si>
-  <si>
-    <t>Maxxlog</t>
-  </si>
-  <si>
-    <t>Blessed</t>
-  </si>
-  <si>
-    <t>CMPL Transportes</t>
-  </si>
-  <si>
-    <t>Ar Cargo</t>
-  </si>
-  <si>
-    <t>Manaos</t>
-  </si>
-  <si>
-    <t>Avista</t>
-  </si>
-  <si>
-    <t>Kuehne+Nagel</t>
-  </si>
-  <si>
     <t>OPR</t>
   </si>
   <si>
-    <t>Dapex</t>
-  </si>
-  <si>
-    <t>GD Guimarães</t>
-  </si>
-  <si>
-    <t>Onze</t>
-  </si>
-  <si>
-    <t>Jualog</t>
-  </si>
-  <si>
-    <t>Ceva</t>
-  </si>
-  <si>
-    <t>BQ Log</t>
-  </si>
-  <si>
-    <t>Sequoia</t>
-  </si>
-  <si>
-    <t>Avant</t>
-  </si>
-  <si>
     <t>LINE HAUL</t>
   </si>
   <si>
-    <t>AD&amp;GE TRANSPORTE RODOVIARIO DE CARGAS LTDA ME</t>
-  </si>
-  <si>
-    <t>AXON TRANSPORTES S/A</t>
-  </si>
-  <si>
-    <t>CARGOLIFT LOGÍSTICA S/A</t>
-  </si>
-  <si>
-    <t>DV3 SOLUÇÕES LOGISTICAS LTDA</t>
-  </si>
-  <si>
-    <t>FAZENDA SÃO JUDAS LOGÍSTICA LTDA</t>
-  </si>
-  <si>
-    <t>GAFOR S.A.</t>
-  </si>
-  <si>
-    <t>JM TRANSPORTES E DISTRIBUICÃO LTDA</t>
-  </si>
-  <si>
-    <t>JOMED TRANSPORTES E LOGISTICA EIRELI</t>
-  </si>
-  <si>
-    <t>LEMAR LOGÍSTICA E TRANSPORTES LTDA</t>
-  </si>
-  <si>
-    <t>OPR LOGISTICA PONTUAL</t>
-  </si>
-  <si>
-    <t>RN EXPRESS COURIER DO BRASIL</t>
-  </si>
-  <si>
-    <t>RODOVIARIO NOSSA SENHORA DA PENHA LTDA</t>
-  </si>
-  <si>
-    <t>TRANS RV TRANSPORTES RODOVIÁRIO DE CARGAS LTDA</t>
-  </si>
-  <si>
-    <t>MONFREDNI TRANSPORTES LTDA</t>
-  </si>
-  <si>
-    <t>REITER TRANSPORTES E LOGÍSTICA LTDA</t>
-  </si>
-  <si>
-    <t>TRANSKING TRANSPORTES LTDA</t>
-  </si>
-  <si>
-    <t>TRANSPORTES CORDENONSI LTDA</t>
-  </si>
-  <si>
-    <t>GAS TRANSPORTES E SERVIÇOS LTDA</t>
-  </si>
-  <si>
-    <t>R&amp;R ISA'S TRANSPORTES EIRELI</t>
-  </si>
-  <si>
-    <t>CARGOBR TRANSPORTES EIRELLI</t>
-  </si>
-  <si>
-    <t>Tex Courier Express (Total Express)</t>
-  </si>
-  <si>
-    <t>JSL S.A</t>
-  </si>
-  <si>
     <t>Obras (Construtora)</t>
   </si>
   <si>
@@ -715,42 +283,18 @@
     <t>LPL CONSTRUCOES LTDA</t>
   </si>
   <si>
-    <t>LEMARC ENGENHARIA LTDA</t>
-  </si>
-  <si>
-    <t>SEC SERVICOS DE ENGENHARIA E CONSTRUÇÃO</t>
-  </si>
-  <si>
     <t>BINE ENGENHARIA LTDA</t>
   </si>
   <si>
     <t>CONSTRUTORA FOCCO</t>
   </si>
   <si>
-    <t>360 CONSTRUÇÕES</t>
-  </si>
-  <si>
     <t>ENGFLEX ENGENHARIA E CONSULTORIA LTDA</t>
   </si>
   <si>
-    <t>ATHIE WOHNRATH COMERCIO DE PRODUTOS</t>
-  </si>
-  <si>
     <t>CONSUL ENGENHARIA LTDA</t>
   </si>
   <si>
-    <t>PRODUCTION AGENCY</t>
-  </si>
-  <si>
-    <t>Paranoid Brasil Ltda.</t>
-  </si>
-  <si>
-    <t>MOVI &amp; ART PRODUÇÕES CINEMATOGRÁFICAS LTDA</t>
-  </si>
-  <si>
-    <t>Delicatessen Produção de Filmes LTDA</t>
-  </si>
-  <si>
     <t>REAL ESTATE SHIPPING</t>
   </si>
   <si>
@@ -790,9 +334,6 @@
     <t>RBR Log</t>
   </si>
   <si>
-    <t>BTS Propoerties</t>
-  </si>
-  <si>
     <t>SISTEMAS DE ARMAZENAGEM E MECANIZAÇAO</t>
   </si>
   <si>
@@ -805,9 +346,6 @@
     <t>BASTIAN SOUTH AMERICA AUTOMACAO E</t>
   </si>
   <si>
-    <t>NUCLEOTECH</t>
-  </si>
-  <si>
     <t>SCHEFFER</t>
   </si>
   <si>
@@ -826,114 +364,36 @@
     <t>MAO DE OBRA EXTERNA</t>
   </si>
   <si>
-    <t>4T GROUP</t>
-  </si>
-  <si>
-    <t>A Senhorinha Serviços Logísticos Ltda</t>
-  </si>
-  <si>
-    <t>ACTUAL SELECAO E SERVICOS LTDA.</t>
-  </si>
-  <si>
-    <t>BLITZ RECURSOS HUMANOS LTDA</t>
-  </si>
-  <si>
-    <t>CAMARGO &amp; MACIEL RECURSOS HUMANOS LTDA</t>
-  </si>
-  <si>
     <t>Carpediem Desenvolvimento Profissional Ltda</t>
   </si>
   <si>
-    <t>CH BRAZIL CONSULTORIA RECURSOS HUMANOS</t>
-  </si>
-  <si>
-    <t>Cipriano Logística e Transportes Ltda</t>
-  </si>
-  <si>
     <t>EBS2 TRADE E GESTAO LTDA</t>
   </si>
   <si>
-    <t>EMPLOYER TRABALHO TEMPORÁRIO S.A.</t>
-  </si>
-  <si>
-    <t>Eurofirms Gestão de Talentos Brasil Ltda</t>
-  </si>
-  <si>
-    <t>FENIX ORGANIZACAO EM RECURSOS HUMANOS LTDA(Fenix RH)</t>
-  </si>
-  <si>
-    <t>FENIX SERVICE SERVIÇOS E MÃO DE OBRA LTDA</t>
-  </si>
-  <si>
-    <t>FORMATEC TERCEIRIZAÇÃO LTDA</t>
-  </si>
-  <si>
-    <t>FORMAWORK SERVIÇOS TEMPORARIOS LTDA</t>
-  </si>
-  <si>
     <t>GESTAO &amp; EMPREGOS, RECURSOS HUMANOS LTDA(personare)</t>
   </si>
   <si>
     <t>Grupo Services</t>
   </si>
   <si>
-    <t>HUBPROLOG TECNOLOGIA E SERVICOS LOGISTICOS LTDA</t>
-  </si>
-  <si>
-    <t>JABUR SOLUÇÕES EM RECURSOS HUMANOS LTDA</t>
-  </si>
-  <si>
-    <t>JUAREZ PEDRO DE OLIVEIRA LTDA</t>
-  </si>
-  <si>
     <t>MALKA GESTAO DE PESSOAS LTDA</t>
   </si>
   <si>
     <t>MANPOWER STAFFING LTDA</t>
   </si>
   <si>
-    <t>MENDES TALENT TERCEIRIZACAO E RECURSOS HUMANOS LTDA</t>
-  </si>
-  <si>
-    <t>METARH RECRUTAMENTO E SELECAO DE PESSOAL LTDA.</t>
-  </si>
-  <si>
     <t>NOSSA SERVICO TEMPORARIO E GESTAO DE PESSOAS LTDA</t>
   </si>
   <si>
-    <t>NOVA RHEAL CONSULTORIA EMPRESARIAL LTDA (união rh)</t>
-  </si>
-  <si>
-    <t>Olog Operador Logístico Digital Ltda</t>
-  </si>
-  <si>
-    <t>PANNA RECURSOS HUMANOS E TERCEIRIZAÇÃO LTDA</t>
-  </si>
-  <si>
     <t>PERSONA PRO GESTAO INTELIGENTE LTDA</t>
   </si>
   <si>
-    <t>Polly Recursos Humanos e Transportes Ltda</t>
-  </si>
-  <si>
     <t>Polly Serviços de Apoio Logistico Eireli</t>
   </si>
   <si>
-    <t>Polly Serviços de Terceirização Ltda</t>
-  </si>
-  <si>
-    <t>PREMIERE SERVIÇOS EMPRESÁRIAIS LTDA</t>
-  </si>
-  <si>
     <t>PRIMER GESTAO DE RECURSOS HUMANOS LTDA</t>
   </si>
   <si>
-    <t>PROMPT SERVIÇOS ESPECIALIZADOS EM MÃO DE OBRA LTDA</t>
-  </si>
-  <si>
-    <t>RECURSUS CONSULTORIA E OUTSOURCING LTDA</t>
-  </si>
-  <si>
     <t>RH MAIOR</t>
   </si>
   <si>
@@ -949,24 +409,6 @@
     <t>SP Soluções Empresariais Ltda(sertec)</t>
   </si>
   <si>
-    <t>SRM - TERCEIRIZACAO DE SERVICOS E RECURSOS HUMANOS LTDA</t>
-  </si>
-  <si>
-    <t>SUPORTE RECURSOS HUMANOS LTDA</t>
-  </si>
-  <si>
-    <t>SUPREMA SOLUÇÕES LOGISTICAS RECURSOS HUMANOS LTDA</t>
-  </si>
-  <si>
-    <t>TBRH RECURSOS HUMANOS LTDA</t>
-  </si>
-  <si>
-    <t>TELOS CONSULTORIA EMPRESARIAL LTDA</t>
-  </si>
-  <si>
-    <t>TSI</t>
-  </si>
-  <si>
     <t>UMANA BRASIL ASSESSORIA E CONSULTORIA DE RECURSOS HUMANOS LTDA</t>
   </si>
   <si>
@@ -976,27 +418,15 @@
     <t>WE CAN BR TRABALHO TEMPORÁRIO LTDA</t>
   </si>
   <si>
-    <t>ZAFER RECURSOS HUMANOS E TRABALHO TEMPORÁRIO LTDA</t>
-  </si>
-  <si>
     <t>ADECCO RECURSOS HUMANOS S/A</t>
   </si>
   <si>
     <t>ALLIS LUANDRE SOLUCOES EM TRADE E PESSOAS S/A</t>
   </si>
   <si>
-    <t>CUSTOMIZA LOGISTICA E SERVICOS LTDA</t>
-  </si>
-  <si>
     <t>GI GROUP BRASIL RECURSOS HUMANOS LTDA</t>
   </si>
   <si>
-    <t>EXPERT CONSULTORIA E TERCEIRIZAÇÃO DE MÃO DE OBRA LTDA</t>
-  </si>
-  <si>
-    <t>Led Logística e Serviços Ltda</t>
-  </si>
-  <si>
     <t>RANDSTAD BRASIL RECURSOS HUMANOS LTDA</t>
   </si>
   <si>
@@ -1109,13 +539,391 @@
   </si>
   <si>
     <t>Teste3</t>
+  </si>
+  <si>
+    <t>ATENTO</t>
+  </si>
+  <si>
+    <t>Correios</t>
+  </si>
+  <si>
+    <t>J&amp;T</t>
+  </si>
+  <si>
+    <t>Jad Logistica Ltda</t>
+  </si>
+  <si>
+    <t>Carvalima</t>
+  </si>
+  <si>
+    <t>Loggi</t>
+  </si>
+  <si>
+    <t>FedexBr</t>
+  </si>
+  <si>
+    <t>Equip IS Shipp</t>
+  </si>
+  <si>
+    <t>Simpress</t>
+  </si>
+  <si>
+    <t>SDC ENGENHARIA DE SISTEMAS LTDA</t>
+  </si>
+  <si>
+    <t>INGRAM MICRO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>CONVERSYS IT SOLUTIONS COMERCIO E S</t>
+  </si>
+  <si>
+    <t>SEAL TELECOM COM SERV DE TELEC LTDA</t>
+  </si>
+  <si>
+    <t>FACILITIES &amp; MANUTENÇAO</t>
+  </si>
+  <si>
+    <t>Transportadora Grupo Imediato</t>
+  </si>
+  <si>
+    <t>PRA LOG</t>
+  </si>
+  <si>
+    <t>CEVA</t>
+  </si>
+  <si>
+    <t>PANTERA LOG TRAN</t>
+  </si>
+  <si>
+    <t>SEQUOIA LM</t>
+  </si>
+  <si>
+    <t>KN Logistica</t>
+  </si>
+  <si>
+    <t>ON TIME SERVICOS</t>
+  </si>
+  <si>
+    <t>BLD LOGÍSTICA</t>
+  </si>
+  <si>
+    <t>BGN NIKIMBA</t>
+  </si>
+  <si>
+    <t>FLYPACK</t>
+  </si>
+  <si>
+    <t>Kari Fretados</t>
+  </si>
+  <si>
+    <t>BRJTransportes</t>
+  </si>
+  <si>
+    <t>PARCEIRO SPOT SOLUCOES</t>
+  </si>
+  <si>
+    <t>COOPMETRO</t>
+  </si>
+  <si>
+    <t>BASEPEX ENCOM</t>
+  </si>
+  <si>
+    <t>A L C TRANSPORTES</t>
+  </si>
+  <si>
+    <t>TRANSMANA</t>
+  </si>
+  <si>
+    <t>ALTOVALE</t>
+  </si>
+  <si>
+    <t>TORRESTRANSP</t>
+  </si>
+  <si>
+    <t>MARONItransp</t>
+  </si>
+  <si>
+    <t>fazendasaojudas</t>
+  </si>
+  <si>
+    <t>MONFREDINI TRANSPORTES</t>
+  </si>
+  <si>
+    <t>JOMED</t>
+  </si>
+  <si>
+    <t>CARGOLIFT</t>
+  </si>
+  <si>
+    <t>Cordenonsi</t>
+  </si>
+  <si>
+    <t>Lemar</t>
+  </si>
+  <si>
+    <t>GAS TRANSPORTES</t>
+  </si>
+  <si>
+    <t>ADyGE</t>
+  </si>
+  <si>
+    <t>RODOPENHA</t>
+  </si>
+  <si>
+    <t>Axon Transportes</t>
+  </si>
+  <si>
+    <t>TRANSKING</t>
+  </si>
+  <si>
+    <t>DV3</t>
+  </si>
+  <si>
+    <t>TransRV</t>
+  </si>
+  <si>
+    <t>AMERICA RECURSOS HUMANOS LTDA</t>
+  </si>
+  <si>
+    <t>PEOPLE SERVICOS TEMPORARIOS LTDA</t>
+  </si>
+  <si>
+    <t>QPC</t>
+  </si>
+  <si>
+    <t>Produtos Fintech</t>
+  </si>
+  <si>
+    <t>THALES DIS BRASIL CARTÕES E SOLUÇÕE</t>
+  </si>
+  <si>
+    <t>VALID SOLUCOES SA</t>
+  </si>
+  <si>
+    <t>NPT DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>TEC TOY</t>
+  </si>
+  <si>
+    <t>GERTEC</t>
+  </si>
+  <si>
+    <t>Brookfield Properties</t>
+  </si>
+  <si>
+    <t>BTS Properties</t>
+  </si>
+  <si>
+    <t>FROTA FIXA</t>
+  </si>
+  <si>
+    <t>LOCALIZA</t>
+  </si>
+  <si>
+    <t>ARVAL</t>
+  </si>
+  <si>
+    <t>TKS ( TRANSMARONI)</t>
+  </si>
+  <si>
+    <t>EVM</t>
+  </si>
+  <si>
+    <t>VAMOS</t>
+  </si>
+  <si>
+    <t>MOVIDA</t>
+  </si>
+  <si>
+    <t>EQUIPAMENTOS OPERATIVOS</t>
+  </si>
+  <si>
+    <t>JUNGHEINRICH LIFT TRUCK COMERCIO DE</t>
+  </si>
+  <si>
+    <t>SOMOV RENTAL LTDA</t>
+  </si>
+  <si>
+    <t>DISKTRANS COMERCIAL LTDA</t>
+  </si>
+  <si>
+    <t>VAMOS LOCACAO DE CAMINHOES</t>
+  </si>
+  <si>
+    <t>KION SOUTH AMERICA FABRICACAO DE EQ</t>
+  </si>
+  <si>
+    <t>Tursan</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>REITER</t>
+  </si>
+  <si>
+    <t>FORM E ART IND COM ART METALICOS LT</t>
+  </si>
+  <si>
+    <t>METALURGICA JAM LTDA</t>
+  </si>
+  <si>
+    <t>DTECH SOLUTIONS INDUSTRIA E COMERC</t>
+  </si>
+  <si>
+    <t>ELLAN SA</t>
+  </si>
+  <si>
+    <t>DTEKT COMERCIO DE FERRAGENS E</t>
+  </si>
+  <si>
+    <t>MKL DO BRASIL INDUSTRIA E COMERCIO</t>
+  </si>
+  <si>
+    <t>AMERICAR EQUIPAMENTOS E PECAS PARA</t>
+  </si>
+  <si>
+    <t>silva.bruno@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>luciano.oliveira@mercadopago.com.br</t>
+  </si>
+  <si>
+    <t>daniela.hoyos@mercadopago.com.br</t>
+  </si>
+  <si>
+    <t>bruno.deoliveira@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>carla.teixeira@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>danieli.cordeiro@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>camila.rodrigues@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>OBRAS</t>
+  </si>
+  <si>
+    <t>vinicius.vano@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>tiago.pires@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>karina.gouveia@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>marilia.guimaraes@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>EQUIP IS SHIPPING</t>
+  </si>
+  <si>
+    <t>ana.maksoud@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>bruno.freitas@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>matheus.pucci@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>monica.rosenburg@mercadolivre.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTAURANTE </t>
+  </si>
+  <si>
+    <t>rogerio.dbandeira@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>FRETADO</t>
+  </si>
+  <si>
+    <t>thiago.tferreira@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>marcio.carvalho@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>leticia.bferreira@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>hiolanda.tavares@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>EQUIP. OPERATIVOS</t>
+  </si>
+  <si>
+    <t>FACILITIES  &amp; MANUTENÇAO</t>
+  </si>
+  <si>
+    <t>PRODUTOS FINTECH</t>
+  </si>
+  <si>
+    <t>fabio.marcomini@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>patricia.scaglioni@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>mariana.greene@mercadolibre.cl</t>
+  </si>
+  <si>
+    <t>natalice.dasilva@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>luiza.franco@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>caio.malatesta@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>fernando.falmeida@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>juliana.castellano@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>marcela.moretti@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>valeria.vmunoz@mercadolibre.com</t>
+  </si>
+  <si>
+    <t>rafael.giagio@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>elisandro.bihum@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>diego.cruz@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>cristiane.scamilo@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>felipe.abueno@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>priscila.barcelli@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>rodrigo.acruz@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>javier.konig@mercadolibre.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1129,6 +937,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1148,14 +970,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1488,15 +1314,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2939FEBB-D56D-4D0D-8366-6ACEEBE32804}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1504,13 +1331,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>347</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>354</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1518,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>348</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1526,10 +1353,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1537,10 +1364,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -1548,21 +1375,21 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>349</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>353</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>349</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1570,10 +1397,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>355</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -1584,24 +1411,609 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B48" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B54" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B55" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B57" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B58" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{2939FEBB-D56D-4D0D-8366-6ACEEBE32804}"/>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1" xr:uid="{8D189261-DF30-425C-A5BB-9C0F96008B51}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{CB141E42-011C-404E-AFAD-EDC98C6F663B}"/>
+    <hyperlink ref="A11" r:id="rId3" xr:uid="{6FD7FBEC-3B78-44C0-A6AC-64FA5A12DE92}"/>
+    <hyperlink ref="A12" r:id="rId4" xr:uid="{C4DA20D7-CA54-4D0E-BCE8-73297EC84346}"/>
+    <hyperlink ref="A13" r:id="rId5" xr:uid="{2441D862-3D7F-4D22-B3E8-06DDA34BCA2D}"/>
+    <hyperlink ref="A14" r:id="rId6" xr:uid="{2AFD8DD0-9DE5-4018-A64D-8608870CEFC3}"/>
+    <hyperlink ref="A15" r:id="rId7" xr:uid="{989ACF43-15FD-43AA-A17E-97E81D8BAB86}"/>
+    <hyperlink ref="A16" r:id="rId8" xr:uid="{AC1BBC28-5DB0-4741-8D30-10EFCE72664B}"/>
+    <hyperlink ref="A17" r:id="rId9" xr:uid="{8500C5F1-8B8A-4712-B962-7562103E3790}"/>
+    <hyperlink ref="A18" r:id="rId10" xr:uid="{43132731-C044-4050-9912-F582D1A3BF0E}"/>
+    <hyperlink ref="A19:A20" r:id="rId11" display="karina.gouveia@mercadolivre.com" xr:uid="{40D590C2-4A2C-4762-933E-3FC5AA2D4ADE}"/>
+    <hyperlink ref="A21" r:id="rId12" xr:uid="{C58BB407-EAC0-459D-8535-DFE9F1B8BC42}"/>
+    <hyperlink ref="A23" r:id="rId13" xr:uid="{5B7C3B39-463D-4BB1-8BD8-486187DC1995}"/>
+    <hyperlink ref="A24" r:id="rId14" xr:uid="{42827ECB-FBD2-4D84-B88C-784CD5314495}"/>
+    <hyperlink ref="A25" r:id="rId15" xr:uid="{C9CBC88F-AEBF-405A-97CB-9A95B198DC44}"/>
+    <hyperlink ref="A26" r:id="rId16" xr:uid="{23FECB9E-8CA9-4F8A-BC72-86930C5B076E}"/>
+    <hyperlink ref="A27" r:id="rId17" xr:uid="{A16ACB94-945B-4FAF-B0CA-AB3FBC502D1A}"/>
+    <hyperlink ref="A29" r:id="rId18" xr:uid="{5CEE9139-C978-4E79-ADD0-68E567340A9D}"/>
+    <hyperlink ref="A30" r:id="rId19" xr:uid="{B1FF7A30-A213-441A-A323-F6A6F6256CA7}"/>
+    <hyperlink ref="A31" r:id="rId20" xr:uid="{2BDF4DB4-837A-4D64-B4A3-9D2E72D3FE3E}"/>
+    <hyperlink ref="A32" r:id="rId21" xr:uid="{0F1F9CCC-00B9-4160-82AE-52A97C865986}"/>
+    <hyperlink ref="A33" r:id="rId22" xr:uid="{38EFDFF9-942A-47F9-A69D-F901F1576724}"/>
+    <hyperlink ref="A34" r:id="rId23" xr:uid="{379DB39A-CE26-4515-9DDD-BE25995314CC}"/>
+    <hyperlink ref="A35" r:id="rId24" xr:uid="{B5AC8671-4876-4863-86B3-93F14638A020}"/>
+    <hyperlink ref="A36" r:id="rId25" xr:uid="{BECCE28C-F3CF-4E86-90F2-EA2CC19403B0}"/>
+    <hyperlink ref="A38" r:id="rId26" xr:uid="{28046451-76E8-4AF8-803C-5B263E7FA461}"/>
+    <hyperlink ref="A39" r:id="rId27" xr:uid="{7BC7CF63-0372-4639-975F-FE0CE1B524F6}"/>
+    <hyperlink ref="A40" r:id="rId28" xr:uid="{948FEFDC-3A31-4A47-AE01-2BFE92685E55}"/>
+    <hyperlink ref="A41" r:id="rId29" xr:uid="{F8300844-A5C0-4374-88FC-6A166FF8545B}"/>
+    <hyperlink ref="A42" r:id="rId30" xr:uid="{69C67621-4607-4728-B3DE-1DCEAB951C25}"/>
+    <hyperlink ref="A43" r:id="rId31" xr:uid="{45004598-476A-48DE-870D-0F9922191463}"/>
+    <hyperlink ref="A44" r:id="rId32" xr:uid="{3BA7327E-A081-4ECC-9D0C-B33B1165B5ED}"/>
+    <hyperlink ref="A45" r:id="rId33" xr:uid="{3C5FF18D-5550-42F5-8288-9125C2F14E95}"/>
+    <hyperlink ref="A46" r:id="rId34" xr:uid="{882D4E2A-999D-4239-962B-2F9F730C71B6}"/>
+    <hyperlink ref="A47" r:id="rId35" xr:uid="{D21348B3-5407-46EF-AAAD-C718D45658C4}"/>
+    <hyperlink ref="A48" r:id="rId36" xr:uid="{37783EC6-1342-4337-98B3-CD1AE364B241}"/>
+    <hyperlink ref="A49" r:id="rId37" xr:uid="{250E67A8-5AD7-47D8-B045-E2B395B5CD1E}"/>
+    <hyperlink ref="A50" r:id="rId38" xr:uid="{320D5FA2-BFB7-4526-B098-DB3F9FEB0CBA}"/>
+    <hyperlink ref="A52" r:id="rId39" xr:uid="{6330E2D8-B2DE-4DBE-920E-60CAD6165CD4}"/>
+    <hyperlink ref="A53" r:id="rId40" xr:uid="{8F8E4823-9F3F-473E-84A3-9070CE6CF901}"/>
+    <hyperlink ref="A54" r:id="rId41" xr:uid="{FC939245-BC0F-4511-BC92-35B9AA45E2C5}"/>
+    <hyperlink ref="A55" r:id="rId42" xr:uid="{353BDE3A-CE05-42E3-8466-63A536BB339C}"/>
+    <hyperlink ref="A56" r:id="rId43" xr:uid="{99083556-E41A-4ECD-8EDB-9D3161B3EE9E}"/>
+    <hyperlink ref="A57" r:id="rId44" xr:uid="{D4C81331-12D3-4405-BF35-36FE75706BBD}"/>
+    <hyperlink ref="A58" r:id="rId45" xr:uid="{8EB0F586-7CF5-4AF6-BEF9-D68B5ECFBFD1}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CC248E-3C21-4DCC-815C-0A279EC017CB}">
-  <dimension ref="A1:B334"/>
+  <dimension ref="A1:B225"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1679,7 +2091,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1687,1023 +2099,1023 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B90" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B97" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B98" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B100" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B102" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B103" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B104" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B105" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B106" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B107" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B109" t="s">
-        <v>117</v>
+        <v>194</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B110" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B111" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B112" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B113" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B115" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B116" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B117" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B118" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B119" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B120" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B121" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B122" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B123" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B125" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B126" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B127" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B128" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B129" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B130" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B131" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B132" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B133" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B134" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B135" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="B136" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="B137" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -2711,7 +3123,7 @@
         <v>106</v>
       </c>
       <c r="B138" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -2719,7 +3131,7 @@
         <v>106</v>
       </c>
       <c r="B139" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -2727,7 +3139,7 @@
         <v>106</v>
       </c>
       <c r="B140" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -2735,7 +3147,7 @@
         <v>106</v>
       </c>
       <c r="B141" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -2743,7 +3155,7 @@
         <v>106</v>
       </c>
       <c r="B142" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -2751,7 +3163,7 @@
         <v>106</v>
       </c>
       <c r="B143" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -2759,7 +3171,7 @@
         <v>106</v>
       </c>
       <c r="B144" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -2767,7 +3179,7 @@
         <v>106</v>
       </c>
       <c r="B145" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -2775,7 +3187,7 @@
         <v>106</v>
       </c>
       <c r="B146" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -2783,7 +3195,7 @@
         <v>106</v>
       </c>
       <c r="B147" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -2791,7 +3203,7 @@
         <v>106</v>
       </c>
       <c r="B148" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -2799,7 +3211,7 @@
         <v>106</v>
       </c>
       <c r="B149" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -2807,7 +3219,7 @@
         <v>106</v>
       </c>
       <c r="B150" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -2815,7 +3227,7 @@
         <v>106</v>
       </c>
       <c r="B151" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -2823,7 +3235,7 @@
         <v>106</v>
       </c>
       <c r="B152" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -2831,7 +3243,7 @@
         <v>106</v>
       </c>
       <c r="B153" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -2839,7 +3251,7 @@
         <v>106</v>
       </c>
       <c r="B154" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -2847,7 +3259,7 @@
         <v>106</v>
       </c>
       <c r="B155" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -2855,7 +3267,7 @@
         <v>106</v>
       </c>
       <c r="B156" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -2863,7 +3275,7 @@
         <v>106</v>
       </c>
       <c r="B157" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -2871,7 +3283,7 @@
         <v>106</v>
       </c>
       <c r="B158" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -2879,7 +3291,7 @@
         <v>106</v>
       </c>
       <c r="B159" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -2887,7 +3299,7 @@
         <v>106</v>
       </c>
       <c r="B160" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -2895,1395 +3307,524 @@
         <v>106</v>
       </c>
       <c r="B161" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B162" t="s">
-        <v>170</v>
+        <v>72</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B163" t="s">
-        <v>171</v>
+        <v>73</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B164" t="s">
-        <v>172</v>
+        <v>74</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B165" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B166" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B167" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B168" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B169" t="s">
-        <v>177</v>
+        <v>79</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B170" t="s">
-        <v>178</v>
+        <v>80</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B171" t="s">
-        <v>179</v>
+        <v>81</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B172" t="s">
-        <v>180</v>
+        <v>82</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B173" t="s">
-        <v>181</v>
+        <v>83</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B174" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="B175" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="B176" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="B177" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="B178" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="B179" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B180" t="s">
-        <v>188</v>
+        <v>85</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B181" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B182" t="s">
-        <v>190</v>
+        <v>87</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B183" t="s">
-        <v>191</v>
+        <v>88</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="B184" t="s">
-        <v>193</v>
+        <v>89</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="B185" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="B186" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="B189" t="s">
-        <v>196</v>
+        <v>94</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="B190" t="s">
-        <v>197</v>
+        <v>95</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="B191" t="s">
-        <v>198</v>
+        <v>96</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="B192" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="B193" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="B194" t="s">
-        <v>201</v>
+        <v>98</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="B195" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="B196" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="B197" t="s">
-        <v>203</v>
+        <v>101</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="B198" t="s">
-        <v>204</v>
+        <v>102</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="B199" t="s">
-        <v>205</v>
+        <v>103</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="B200" t="s">
-        <v>206</v>
+        <v>104</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="B201" t="s">
-        <v>207</v>
+        <v>105</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="B202" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="B203" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="B204" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="B205" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="B206" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="B207" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="B208" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="B209" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="B210" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="B211" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="B212" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="B213" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="B214" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>215</v>
+        <v>70</v>
       </c>
       <c r="B215" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c r="B216" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c r="B217" t="s">
-        <v>223</v>
+        <v>66</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c r="B218" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="B219" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="B220" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="B221" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="B222" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="B223" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="B224" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="B225" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>232</v>
-      </c>
-      <c r="B226" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>232</v>
-      </c>
-      <c r="B227" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>232</v>
-      </c>
-      <c r="B228" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
-        <v>236</v>
-      </c>
-      <c r="B229" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
-        <v>236</v>
-      </c>
-      <c r="B230" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>236</v>
-      </c>
-      <c r="B231" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>236</v>
-      </c>
-      <c r="B232" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>236</v>
-      </c>
-      <c r="B233" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>236</v>
-      </c>
-      <c r="B234" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>236</v>
-      </c>
-      <c r="B235" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>236</v>
-      </c>
-      <c r="B236" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>236</v>
-      </c>
-      <c r="B237" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>236</v>
-      </c>
-      <c r="B238" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>236</v>
-      </c>
-      <c r="B239" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>236</v>
-      </c>
-      <c r="B240" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>236</v>
-      </c>
-      <c r="B241" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>250</v>
-      </c>
-      <c r="B242" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>250</v>
-      </c>
-      <c r="B243" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>250</v>
-      </c>
-      <c r="B244" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>250</v>
-      </c>
-      <c r="B245" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>250</v>
-      </c>
-      <c r="B246" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>250</v>
-      </c>
-      <c r="B247" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>250</v>
-      </c>
-      <c r="B248" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>250</v>
-      </c>
-      <c r="B249" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>250</v>
-      </c>
-      <c r="B250" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>260</v>
-      </c>
-      <c r="B251" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>260</v>
-      </c>
-      <c r="B252" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>260</v>
-      </c>
-      <c r="B253" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>260</v>
-      </c>
-      <c r="B254" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>260</v>
-      </c>
-      <c r="B255" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>260</v>
-      </c>
-      <c r="B256" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>260</v>
-      </c>
-      <c r="B257" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>260</v>
-      </c>
-      <c r="B258" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>260</v>
-      </c>
-      <c r="B259" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>260</v>
-      </c>
-      <c r="B260" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>260</v>
-      </c>
-      <c r="B261" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>260</v>
-      </c>
-      <c r="B262" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>260</v>
-      </c>
-      <c r="B263" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>260</v>
-      </c>
-      <c r="B264" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>260</v>
-      </c>
-      <c r="B265" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>260</v>
-      </c>
-      <c r="B266" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>260</v>
-      </c>
-      <c r="B267" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>260</v>
-      </c>
-      <c r="B268" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
-        <v>260</v>
-      </c>
-      <c r="B269" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>260</v>
-      </c>
-      <c r="B270" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
-        <v>260</v>
-      </c>
-      <c r="B271" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
-        <v>260</v>
-      </c>
-      <c r="B272" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
-        <v>260</v>
-      </c>
-      <c r="B273" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>260</v>
-      </c>
-      <c r="B274" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>260</v>
-      </c>
-      <c r="B275" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>260</v>
-      </c>
-      <c r="B276" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
-        <v>260</v>
-      </c>
-      <c r="B277" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>260</v>
-      </c>
-      <c r="B278" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>260</v>
-      </c>
-      <c r="B279" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
-        <v>260</v>
-      </c>
-      <c r="B280" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
-        <v>260</v>
-      </c>
-      <c r="B281" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
-        <v>260</v>
-      </c>
-      <c r="B282" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
-        <v>260</v>
-      </c>
-      <c r="B283" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
-        <v>260</v>
-      </c>
-      <c r="B284" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
-        <v>260</v>
-      </c>
-      <c r="B285" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
-        <v>260</v>
-      </c>
-      <c r="B286" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
-        <v>260</v>
-      </c>
-      <c r="B287" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
-        <v>260</v>
-      </c>
-      <c r="B288" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
-        <v>260</v>
-      </c>
-      <c r="B289" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
-        <v>260</v>
-      </c>
-      <c r="B290" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
-        <v>260</v>
-      </c>
-      <c r="B291" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
-        <v>260</v>
-      </c>
-      <c r="B292" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
-        <v>260</v>
-      </c>
-      <c r="B293" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
-        <v>260</v>
-      </c>
-      <c r="B294" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
-        <v>260</v>
-      </c>
-      <c r="B295" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
-        <v>260</v>
-      </c>
-      <c r="B296" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
-        <v>260</v>
-      </c>
-      <c r="B297" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
-        <v>260</v>
-      </c>
-      <c r="B298" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
-        <v>260</v>
-      </c>
-      <c r="B299" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
-        <v>260</v>
-      </c>
-      <c r="B300" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
-        <v>260</v>
-      </c>
-      <c r="B301" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
-        <v>260</v>
-      </c>
-      <c r="B302" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
-        <v>260</v>
-      </c>
-      <c r="B303" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
-        <v>260</v>
-      </c>
-      <c r="B304" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
-        <v>260</v>
-      </c>
-      <c r="B305" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
-        <v>260</v>
-      </c>
-      <c r="B306" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
-        <v>260</v>
-      </c>
-      <c r="B307" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
-        <v>260</v>
-      </c>
-      <c r="B308" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
-        <v>319</v>
-      </c>
-      <c r="B309" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
-        <v>319</v>
-      </c>
-      <c r="B310" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
-        <v>319</v>
-      </c>
-      <c r="B311" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
-        <v>319</v>
-      </c>
-      <c r="B312" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
-        <v>319</v>
-      </c>
-      <c r="B313" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
-        <v>319</v>
-      </c>
-      <c r="B314" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
-        <v>319</v>
-      </c>
-      <c r="B315" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
-        <v>319</v>
-      </c>
-      <c r="B316" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
-        <v>319</v>
-      </c>
-      <c r="B317" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
-        <v>319</v>
-      </c>
-      <c r="B318" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
-        <v>319</v>
-      </c>
-      <c r="B319" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
-        <v>319</v>
-      </c>
-      <c r="B320" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
-        <v>319</v>
-      </c>
-      <c r="B321" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
-        <v>319</v>
-      </c>
-      <c r="B322" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
-        <v>319</v>
-      </c>
-      <c r="B323" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
-        <v>319</v>
-      </c>
-      <c r="B324" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
-        <v>319</v>
-      </c>
-      <c r="B325" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
-        <v>319</v>
-      </c>
-      <c r="B326" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
-        <v>319</v>
-      </c>
-      <c r="B327" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
-        <v>319</v>
-      </c>
-      <c r="B328" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
-        <v>319</v>
-      </c>
-      <c r="B329" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
-        <v>319</v>
-      </c>
-      <c r="B330" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
-        <v>319</v>
-      </c>
-      <c r="B331" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
-        <v>319</v>
-      </c>
-      <c r="B332" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
-        <v>319</v>
-      </c>
-      <c r="B333" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
-        <v>319</v>
-      </c>
-      <c r="B334" t="s">
-        <v>345</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B334" xr:uid="{94CC248E-3C21-4DCC-815C-0A279EC017CB}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Acessos.xlsx
+++ b/Acessos.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unosilva\Documents\Projeto Meli Awards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2598290-E7DB-4286-A9B1-368C459CB48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94786984-D297-4FCE-8565-43ECD8CF02AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6876E12-98B3-4F33-AF0F-22A5C1C00DD2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F6876E12-98B3-4F33-AF0F-22A5C1C00DD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Acessos" sheetId="1" r:id="rId1"/>
     <sheet name="Categorias" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acessos!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acessos!$A$1:$D$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Categorias!$A$1:$B$334</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="293">
   <si>
     <t>E-mail</t>
   </si>
@@ -835,15 +835,9 @@
     <t>monica.rosenburg@mercadolivre.com</t>
   </si>
   <si>
-    <t xml:space="preserve">RESTAURANTE </t>
-  </si>
-  <si>
     <t>rogerio.dbandeira@mercadolivre.com</t>
   </si>
   <si>
-    <t>FRETADO</t>
-  </si>
-  <si>
     <t>thiago.tferreira@mercadolivre.com</t>
   </si>
   <si>
@@ -856,18 +850,12 @@
     <t>hiolanda.tavares@mercadolivre.com</t>
   </si>
   <si>
-    <t>EQUIP. OPERATIVOS</t>
-  </si>
-  <si>
     <t>FACILITIES  &amp; MANUTENÇAO</t>
   </si>
   <si>
     <t>PRODUTOS FINTECH</t>
   </si>
   <si>
-    <t>fabio.marcomini@mercadolivre.com</t>
-  </si>
-  <si>
     <t>patricia.scaglioni@mercadolivre.com</t>
   </si>
   <si>
@@ -917,6 +905,21 @@
   </si>
   <si>
     <t>javier.konig@mercadolibre.com</t>
+  </si>
+  <si>
+    <t>tiago.tsilva@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>yineska.gonzalez@mercadolibre.com</t>
+  </si>
+  <si>
+    <t>abigail.fandino@mercadolibre.com</t>
+  </si>
+  <si>
+    <t>nicole.ncontheux@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>pablo.contessi@mercadolibre.com</t>
   </si>
 </sst>
 </file>
@@ -1314,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2939FEBB-D56D-4D0D-8366-6ACEEBE32804}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1507,7 +1510,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="B17" t="s">
         <v>159</v>
@@ -1518,13 +1521,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B18" t="s">
         <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1535,7 +1538,7 @@
         <v>159</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1546,42 +1549,42 @@
         <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B21" t="s">
         <v>159</v>
       </c>
       <c r="C21" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="B22" t="s">
         <v>159</v>
       </c>
       <c r="C22" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="B23" t="s">
         <v>159</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B24" t="s">
         <v>159</v>
@@ -1592,18 +1595,18 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s">
         <v>159</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s">
         <v>159</v>
@@ -1614,349 +1617,377 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s">
         <v>159</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="B28" t="s">
         <v>159</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="B29" t="s">
         <v>159</v>
       </c>
       <c r="C29" t="s">
-        <v>264</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s">
         <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>264</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s">
         <v>159</v>
       </c>
       <c r="C31" t="s">
-        <v>266</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s">
         <v>159</v>
       </c>
       <c r="C32" t="s">
-        <v>271</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s">
         <v>159</v>
       </c>
       <c r="C33" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s">
         <v>159</v>
       </c>
       <c r="C34" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s">
         <v>159</v>
       </c>
       <c r="C35" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s">
         <v>159</v>
       </c>
       <c r="C36" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>268</v>
+      </c>
       <c r="B37" t="s">
         <v>159</v>
       </c>
       <c r="C37" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="B39" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>106</v>
+        <v>159</v>
+      </c>
+      <c r="C39" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="B40" t="s">
         <v>158</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B41" t="s">
         <v>158</v>
       </c>
-      <c r="C41" t="s">
-        <v>84</v>
+      <c r="C41" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B42" t="s">
         <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>254</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B43" t="s">
         <v>158</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B44" t="s">
         <v>158</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B45" t="s">
         <v>158</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B46" t="s">
         <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B47" t="s">
         <v>158</v>
       </c>
       <c r="C47" t="s">
-        <v>224</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B48" t="s">
         <v>158</v>
       </c>
       <c r="C48" t="s">
-        <v>259</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B49" t="s">
         <v>158</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B50" t="s">
         <v>158</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>280</v>
+      </c>
       <c r="B51" t="s">
         <v>158</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B52" t="s">
         <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B53" t="s">
         <v>158</v>
       </c>
       <c r="C53" t="s">
-        <v>264</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B54" t="s">
         <v>158</v>
       </c>
       <c r="C54" t="s">
-        <v>266</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B55" t="s">
         <v>158</v>
       </c>
       <c r="C55" t="s">
-        <v>271</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B56" t="s">
         <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>271</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B57" t="s">
         <v>158</v>
       </c>
       <c r="C57" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B58" t="s">
         <v>158</v>
       </c>
       <c r="C58" t="s">
-        <v>273</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{2939FEBB-D56D-4D0D-8366-6ACEEBE32804}"/>
+  <autoFilter ref="A1:D60" xr:uid="{2939FEBB-D56D-4D0D-8366-6ACEEBE32804}"/>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{8D189261-DF30-425C-A5BB-9C0F96008B51}"/>
     <hyperlink ref="A10" r:id="rId2" xr:uid="{CB141E42-011C-404E-AFAD-EDC98C6F663B}"/>
@@ -1966,43 +1997,47 @@
     <hyperlink ref="A14" r:id="rId6" xr:uid="{2AFD8DD0-9DE5-4018-A64D-8608870CEFC3}"/>
     <hyperlink ref="A15" r:id="rId7" xr:uid="{989ACF43-15FD-43AA-A17E-97E81D8BAB86}"/>
     <hyperlink ref="A16" r:id="rId8" xr:uid="{AC1BBC28-5DB0-4741-8D30-10EFCE72664B}"/>
-    <hyperlink ref="A17" r:id="rId9" xr:uid="{8500C5F1-8B8A-4712-B962-7562103E3790}"/>
-    <hyperlink ref="A18" r:id="rId10" xr:uid="{43132731-C044-4050-9912-F582D1A3BF0E}"/>
-    <hyperlink ref="A19:A20" r:id="rId11" display="karina.gouveia@mercadolivre.com" xr:uid="{40D590C2-4A2C-4762-933E-3FC5AA2D4ADE}"/>
-    <hyperlink ref="A21" r:id="rId12" xr:uid="{C58BB407-EAC0-459D-8535-DFE9F1B8BC42}"/>
-    <hyperlink ref="A23" r:id="rId13" xr:uid="{5B7C3B39-463D-4BB1-8BD8-486187DC1995}"/>
-    <hyperlink ref="A24" r:id="rId14" xr:uid="{42827ECB-FBD2-4D84-B88C-784CD5314495}"/>
-    <hyperlink ref="A25" r:id="rId15" xr:uid="{C9CBC88F-AEBF-405A-97CB-9A95B198DC44}"/>
-    <hyperlink ref="A26" r:id="rId16" xr:uid="{23FECB9E-8CA9-4F8A-BC72-86930C5B076E}"/>
-    <hyperlink ref="A27" r:id="rId17" xr:uid="{A16ACB94-945B-4FAF-B0CA-AB3FBC502D1A}"/>
-    <hyperlink ref="A29" r:id="rId18" xr:uid="{5CEE9139-C978-4E79-ADD0-68E567340A9D}"/>
-    <hyperlink ref="A30" r:id="rId19" xr:uid="{B1FF7A30-A213-441A-A323-F6A6F6256CA7}"/>
-    <hyperlink ref="A31" r:id="rId20" xr:uid="{2BDF4DB4-837A-4D64-B4A3-9D2E72D3FE3E}"/>
-    <hyperlink ref="A32" r:id="rId21" xr:uid="{0F1F9CCC-00B9-4160-82AE-52A97C865986}"/>
-    <hyperlink ref="A33" r:id="rId22" xr:uid="{38EFDFF9-942A-47F9-A69D-F901F1576724}"/>
-    <hyperlink ref="A34" r:id="rId23" xr:uid="{379DB39A-CE26-4515-9DDD-BE25995314CC}"/>
-    <hyperlink ref="A35" r:id="rId24" xr:uid="{B5AC8671-4876-4863-86B3-93F14638A020}"/>
-    <hyperlink ref="A36" r:id="rId25" xr:uid="{BECCE28C-F3CF-4E86-90F2-EA2CC19403B0}"/>
-    <hyperlink ref="A38" r:id="rId26" xr:uid="{28046451-76E8-4AF8-803C-5B263E7FA461}"/>
-    <hyperlink ref="A39" r:id="rId27" xr:uid="{7BC7CF63-0372-4639-975F-FE0CE1B524F6}"/>
-    <hyperlink ref="A40" r:id="rId28" xr:uid="{948FEFDC-3A31-4A47-AE01-2BFE92685E55}"/>
-    <hyperlink ref="A41" r:id="rId29" xr:uid="{F8300844-A5C0-4374-88FC-6A166FF8545B}"/>
-    <hyperlink ref="A42" r:id="rId30" xr:uid="{69C67621-4607-4728-B3DE-1DCEAB951C25}"/>
-    <hyperlink ref="A43" r:id="rId31" xr:uid="{45004598-476A-48DE-870D-0F9922191463}"/>
-    <hyperlink ref="A44" r:id="rId32" xr:uid="{3BA7327E-A081-4ECC-9D0C-B33B1165B5ED}"/>
-    <hyperlink ref="A45" r:id="rId33" xr:uid="{3C5FF18D-5550-42F5-8288-9125C2F14E95}"/>
-    <hyperlink ref="A46" r:id="rId34" xr:uid="{882D4E2A-999D-4239-962B-2F9F730C71B6}"/>
-    <hyperlink ref="A47" r:id="rId35" xr:uid="{D21348B3-5407-46EF-AAAD-C718D45658C4}"/>
-    <hyperlink ref="A48" r:id="rId36" xr:uid="{37783EC6-1342-4337-98B3-CD1AE364B241}"/>
-    <hyperlink ref="A49" r:id="rId37" xr:uid="{250E67A8-5AD7-47D8-B045-E2B395B5CD1E}"/>
-    <hyperlink ref="A50" r:id="rId38" xr:uid="{320D5FA2-BFB7-4526-B098-DB3F9FEB0CBA}"/>
-    <hyperlink ref="A52" r:id="rId39" xr:uid="{6330E2D8-B2DE-4DBE-920E-60CAD6165CD4}"/>
-    <hyperlink ref="A53" r:id="rId40" xr:uid="{8F8E4823-9F3F-473E-84A3-9070CE6CF901}"/>
-    <hyperlink ref="A54" r:id="rId41" xr:uid="{FC939245-BC0F-4511-BC92-35B9AA45E2C5}"/>
-    <hyperlink ref="A55" r:id="rId42" xr:uid="{353BDE3A-CE05-42E3-8466-63A536BB339C}"/>
-    <hyperlink ref="A56" r:id="rId43" xr:uid="{99083556-E41A-4ECD-8EDB-9D3161B3EE9E}"/>
-    <hyperlink ref="A57" r:id="rId44" xr:uid="{D4C81331-12D3-4405-BF35-36FE75706BBD}"/>
-    <hyperlink ref="A58" r:id="rId45" xr:uid="{8EB0F586-7CF5-4AF6-BEF9-D68B5ECFBFD1}"/>
+    <hyperlink ref="A18" r:id="rId9" xr:uid="{8500C5F1-8B8A-4712-B962-7562103E3790}"/>
+    <hyperlink ref="A19" r:id="rId10" xr:uid="{43132731-C044-4050-9912-F582D1A3BF0E}"/>
+    <hyperlink ref="A20:A21" r:id="rId11" display="karina.gouveia@mercadolivre.com" xr:uid="{40D590C2-4A2C-4762-933E-3FC5AA2D4ADE}"/>
+    <hyperlink ref="A22" r:id="rId12" xr:uid="{C58BB407-EAC0-459D-8535-DFE9F1B8BC42}"/>
+    <hyperlink ref="A24" r:id="rId13" xr:uid="{5B7C3B39-463D-4BB1-8BD8-486187DC1995}"/>
+    <hyperlink ref="A25" r:id="rId14" xr:uid="{42827ECB-FBD2-4D84-B88C-784CD5314495}"/>
+    <hyperlink ref="A26" r:id="rId15" xr:uid="{C9CBC88F-AEBF-405A-97CB-9A95B198DC44}"/>
+    <hyperlink ref="A27" r:id="rId16" xr:uid="{23FECB9E-8CA9-4F8A-BC72-86930C5B076E}"/>
+    <hyperlink ref="A28" r:id="rId17" xr:uid="{A16ACB94-945B-4FAF-B0CA-AB3FBC502D1A}"/>
+    <hyperlink ref="A30" r:id="rId18" xr:uid="{5CEE9139-C978-4E79-ADD0-68E567340A9D}"/>
+    <hyperlink ref="A31" r:id="rId19" xr:uid="{B1FF7A30-A213-441A-A323-F6A6F6256CA7}"/>
+    <hyperlink ref="A32" r:id="rId20" xr:uid="{2BDF4DB4-837A-4D64-B4A3-9D2E72D3FE3E}"/>
+    <hyperlink ref="A33" r:id="rId21" xr:uid="{0F1F9CCC-00B9-4160-82AE-52A97C865986}"/>
+    <hyperlink ref="A34" r:id="rId22" xr:uid="{38EFDFF9-942A-47F9-A69D-F901F1576724}"/>
+    <hyperlink ref="A35" r:id="rId23" xr:uid="{379DB39A-CE26-4515-9DDD-BE25995314CC}"/>
+    <hyperlink ref="A36" r:id="rId24" xr:uid="{B5AC8671-4876-4863-86B3-93F14638A020}"/>
+    <hyperlink ref="A37" r:id="rId25" xr:uid="{BECCE28C-F3CF-4E86-90F2-EA2CC19403B0}"/>
+    <hyperlink ref="A40" r:id="rId26" xr:uid="{28046451-76E8-4AF8-803C-5B263E7FA461}"/>
+    <hyperlink ref="A41" r:id="rId27" xr:uid="{7BC7CF63-0372-4639-975F-FE0CE1B524F6}"/>
+    <hyperlink ref="A42" r:id="rId28" xr:uid="{948FEFDC-3A31-4A47-AE01-2BFE92685E55}"/>
+    <hyperlink ref="A43" r:id="rId29" xr:uid="{F8300844-A5C0-4374-88FC-6A166FF8545B}"/>
+    <hyperlink ref="A44" r:id="rId30" xr:uid="{69C67621-4607-4728-B3DE-1DCEAB951C25}"/>
+    <hyperlink ref="A45" r:id="rId31" xr:uid="{45004598-476A-48DE-870D-0F9922191463}"/>
+    <hyperlink ref="A46" r:id="rId32" xr:uid="{3BA7327E-A081-4ECC-9D0C-B33B1165B5ED}"/>
+    <hyperlink ref="A47" r:id="rId33" xr:uid="{3C5FF18D-5550-42F5-8288-9125C2F14E95}"/>
+    <hyperlink ref="A48" r:id="rId34" xr:uid="{882D4E2A-999D-4239-962B-2F9F730C71B6}"/>
+    <hyperlink ref="A49" r:id="rId35" xr:uid="{D21348B3-5407-46EF-AAAD-C718D45658C4}"/>
+    <hyperlink ref="A50" r:id="rId36" xr:uid="{37783EC6-1342-4337-98B3-CD1AE364B241}"/>
+    <hyperlink ref="A51" r:id="rId37" xr:uid="{250E67A8-5AD7-47D8-B045-E2B395B5CD1E}"/>
+    <hyperlink ref="A52" r:id="rId38" xr:uid="{320D5FA2-BFB7-4526-B098-DB3F9FEB0CBA}"/>
+    <hyperlink ref="A54" r:id="rId39" xr:uid="{6330E2D8-B2DE-4DBE-920E-60CAD6165CD4}"/>
+    <hyperlink ref="A55" r:id="rId40" xr:uid="{8F8E4823-9F3F-473E-84A3-9070CE6CF901}"/>
+    <hyperlink ref="A56" r:id="rId41" xr:uid="{FC939245-BC0F-4511-BC92-35B9AA45E2C5}"/>
+    <hyperlink ref="A57" r:id="rId42" xr:uid="{353BDE3A-CE05-42E3-8466-63A536BB339C}"/>
+    <hyperlink ref="A58" r:id="rId43" xr:uid="{99083556-E41A-4ECD-8EDB-9D3161B3EE9E}"/>
+    <hyperlink ref="A59" r:id="rId44" xr:uid="{D4C81331-12D3-4405-BF35-36FE75706BBD}"/>
+    <hyperlink ref="A60" r:id="rId45" xr:uid="{8EB0F586-7CF5-4AF6-BEF9-D68B5ECFBFD1}"/>
+    <hyperlink ref="A17" r:id="rId46" xr:uid="{D6254114-1161-43E2-93FE-7ECA5D7A4505}"/>
+    <hyperlink ref="A53" r:id="rId47" xr:uid="{2038710C-A636-43FF-8C2E-1A54462FF381}"/>
+    <hyperlink ref="A39" r:id="rId48" xr:uid="{A2E4D26B-FF91-4F0D-91E6-41E37CCA9759}"/>
+    <hyperlink ref="A38" r:id="rId49" xr:uid="{8341BB43-1C12-4274-9CE1-B6445B6018DD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2013,7 +2048,7 @@
   <dimension ref="A1:B225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2192,210 +2227,210 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s">
-        <v>180</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="B37" t="s">
-        <v>181</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="B38" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>183</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>186</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2403,7 +2438,7 @@
         <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2411,143 +2446,143 @@
         <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>141</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -2555,7 +2590,7 @@
         <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -2563,7 +2598,7 @@
         <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -2571,7 +2606,7 @@
         <v>129</v>
       </c>
       <c r="B69" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -2579,7 +2614,7 @@
         <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -2587,7 +2622,7 @@
         <v>129</v>
       </c>
       <c r="B71" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -2595,7 +2630,7 @@
         <v>129</v>
       </c>
       <c r="B72" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -2603,7 +2638,7 @@
         <v>129</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -2611,7 +2646,7 @@
         <v>129</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -2619,7 +2654,7 @@
         <v>129</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -2627,7 +2662,7 @@
         <v>129</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -2635,7 +2670,7 @@
         <v>129</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -2643,119 +2678,119 @@
         <v>129</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B80" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B82" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B85" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B86" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B87" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B88" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B89" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B91" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -2763,7 +2798,7 @@
         <v>37</v>
       </c>
       <c r="B93" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -2771,7 +2806,7 @@
         <v>37</v>
       </c>
       <c r="B94" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -2779,7 +2814,7 @@
         <v>37</v>
       </c>
       <c r="B95" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -2787,7 +2822,7 @@
         <v>37</v>
       </c>
       <c r="B96" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -2795,7 +2830,7 @@
         <v>37</v>
       </c>
       <c r="B97" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -2803,7 +2838,7 @@
         <v>37</v>
       </c>
       <c r="B98" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -2811,7 +2846,7 @@
         <v>37</v>
       </c>
       <c r="B99" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -2819,7 +2854,7 @@
         <v>37</v>
       </c>
       <c r="B100" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -2827,1003 +2862,1007 @@
         <v>37</v>
       </c>
       <c r="B101" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B102" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B104" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B105" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B106" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B107" t="s">
-        <v>187</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B108" t="s">
-        <v>193</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B109" t="s">
-        <v>194</v>
+        <v>53</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B110" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B111" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B112" t="s">
-        <v>181</v>
+        <v>56</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B113" t="s">
-        <v>196</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B114" t="s">
-        <v>197</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B115" t="s">
-        <v>198</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B116" t="s">
-        <v>64</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="B117" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="B118" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="B119" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="B120" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="B121" t="s">
-        <v>64</v>
+        <v>228</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="B122" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="B123" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B124" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B125" t="s">
-        <v>205</v>
+        <v>61</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B127" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B128" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B129" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B130" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B131" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B132" t="s">
-        <v>212</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B133" t="s">
-        <v>68</v>
+        <v>195</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B134" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B135" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>197</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="B137" t="s">
-        <v>17</v>
+        <v>198</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B138" t="s">
-        <v>213</v>
+        <v>64</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B139" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B140" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B141" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B142" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B143" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B144" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B145" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B146" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B147" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B148" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B149" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B150" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B151" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B152" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B153" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B154" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B155" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B156" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B157" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B158" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B159" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B160" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B161" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B162" t="s">
-        <v>72</v>
+        <v>213</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B163" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B164" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B165" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B166" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B167" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B168" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B169" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B170" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B171" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B172" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B173" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B174" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="B175" t="s">
-        <v>217</v>
+        <v>116</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="B176" t="s">
-        <v>218</v>
+        <v>117</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="B177" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="B178" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="B179" t="s">
-        <v>221</v>
+        <v>121</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B180" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B181" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B182" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B183" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B184" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B185" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B186" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B187" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B188" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B189" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B190" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B191" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B192" t="s">
-        <v>222</v>
+        <v>78</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B193" t="s">
-        <v>223</v>
+        <v>79</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B194" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B195" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B196" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B197" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B198" t="s">
-        <v>102</v>
+        <v>215</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="B199" t="s">
-        <v>103</v>
+        <v>217</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="B200" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="B201" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B202" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B203" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c r="B204" t="s">
-        <v>227</v>
+        <v>85</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c r="B205" t="s">
-        <v>228</v>
+        <v>86</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c r="B206" t="s">
-        <v>229</v>
+        <v>87</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c r="B207" t="s">
-        <v>230</v>
+        <v>88</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>231</v>
+        <v>84</v>
       </c>
       <c r="B208" t="s">
-        <v>232</v>
+        <v>89</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>231</v>
+        <v>84</v>
       </c>
       <c r="B209" t="s">
-        <v>233</v>
+        <v>90</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>84</v>
       </c>
       <c r="B210" t="s">
-        <v>234</v>
+        <v>91</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>231</v>
+        <v>84</v>
       </c>
       <c r="B211" t="s">
-        <v>235</v>
+        <v>92</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>231</v>
+        <v>84</v>
       </c>
       <c r="B212" t="s">
-        <v>236</v>
+        <v>93</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B213" t="s">
-        <v>237</v>
+        <v>94</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B214" t="s">
-        <v>238</v>
+        <v>95</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B215" t="s">
-        <v>239</v>
+        <v>96</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B216" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B217" t="s">
-        <v>66</v>
+        <v>223</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B218" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="B219" t="s">
-        <v>240</v>
+        <v>100</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="B220" t="s">
-        <v>241</v>
+        <v>99</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="B221" t="s">
-        <v>242</v>
+        <v>101</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="B222" t="s">
-        <v>243</v>
+        <v>102</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="B223" t="s">
-        <v>244</v>
+        <v>103</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="B224" t="s">
-        <v>245</v>
+        <v>104</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="B225" t="s">
-        <v>246</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B334" xr:uid="{94CC248E-3C21-4DCC-815C-0A279EC017CB}"/>
+  <autoFilter ref="A1:B334" xr:uid="{94CC248E-3C21-4DCC-815C-0A279EC017CB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B225">
+      <sortCondition ref="A1:A334"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Acessos.xlsx
+++ b/Acessos.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unosilva\Documents\Projeto Meli Awards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94786984-D297-4FCE-8565-43ECD8CF02AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4147E73E-7B5E-42C4-BED8-9326501F3426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F6876E12-98B3-4F33-AF0F-22A5C1C00DD2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6876E12-98B3-4F33-AF0F-22A5C1C00DD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Acessos" sheetId="1" r:id="rId1"/>
     <sheet name="Categorias" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acessos!$A$1:$D$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acessos!$A$1:$D$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Categorias!$A$1:$B$334</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="296">
   <si>
     <t>E-mail</t>
   </si>
@@ -880,9 +880,6 @@
     <t>marcela.moretti@mercadolivre.com</t>
   </si>
   <si>
-    <t>valeria.vmunoz@mercadolibre.com</t>
-  </si>
-  <si>
     <t>rafael.giagio@mercadolivre.com</t>
   </si>
   <si>
@@ -920,6 +917,18 @@
   </si>
   <si>
     <t>pablo.contessi@mercadolibre.com</t>
+  </si>
+  <si>
+    <t>anderson.deoliveira@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>mayara.mmelo@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>fabio.marcomini@mercadolivre.com</t>
+  </si>
+  <si>
+    <t>gustavo.culber@mercadolivre.com</t>
   </si>
 </sst>
 </file>
@@ -1317,10 +1326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2939FEBB-D56D-4D0D-8366-6ACEEBE32804}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1510,7 +1519,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
         <v>159</v>
@@ -1575,6 +1584,9 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="B23" t="s">
         <v>159</v>
       </c>
@@ -1735,7 +1747,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B38" t="s">
         <v>159</v>
@@ -1746,7 +1758,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B39" t="s">
         <v>159</v>
@@ -1757,7 +1769,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s">
         <v>158</v>
@@ -1790,46 +1802,46 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="B43" t="s">
         <v>158</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B44" t="s">
         <v>158</v>
       </c>
       <c r="C44" t="s">
-        <v>254</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B45" t="s">
         <v>158</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B46" t="s">
         <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1840,154 +1852,187 @@
         <v>158</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B48" t="s">
         <v>158</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B49" t="s">
         <v>158</v>
       </c>
       <c r="C49" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B50" t="s">
         <v>158</v>
       </c>
       <c r="C50" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B51" t="s">
         <v>158</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B52" t="s">
         <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B53" t="s">
         <v>158</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="B54" t="s">
         <v>158</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="B55" t="s">
         <v>158</v>
       </c>
       <c r="C55" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B56" t="s">
         <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B57" t="s">
         <v>158</v>
       </c>
       <c r="C57" t="s">
-        <v>231</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B58" t="s">
         <v>158</v>
       </c>
       <c r="C58" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B59" t="s">
         <v>158</v>
       </c>
       <c r="C59" t="s">
-        <v>269</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B60" t="s">
         <v>158</v>
       </c>
       <c r="C60" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B62" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B63" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" t="s">
         <v>270</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D60" xr:uid="{2939FEBB-D56D-4D0D-8366-6ACEEBE32804}"/>
+  <autoFilter ref="A1:D63" xr:uid="{2939FEBB-D56D-4D0D-8366-6ACEEBE32804}"/>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{8D189261-DF30-425C-A5BB-9C0F96008B51}"/>
     <hyperlink ref="A10" r:id="rId2" xr:uid="{CB141E42-011C-404E-AFAD-EDC98C6F663B}"/>
@@ -2017,27 +2062,31 @@
     <hyperlink ref="A40" r:id="rId26" xr:uid="{28046451-76E8-4AF8-803C-5B263E7FA461}"/>
     <hyperlink ref="A41" r:id="rId27" xr:uid="{7BC7CF63-0372-4639-975F-FE0CE1B524F6}"/>
     <hyperlink ref="A42" r:id="rId28" xr:uid="{948FEFDC-3A31-4A47-AE01-2BFE92685E55}"/>
-    <hyperlink ref="A43" r:id="rId29" xr:uid="{F8300844-A5C0-4374-88FC-6A166FF8545B}"/>
-    <hyperlink ref="A44" r:id="rId30" xr:uid="{69C67621-4607-4728-B3DE-1DCEAB951C25}"/>
-    <hyperlink ref="A45" r:id="rId31" xr:uid="{45004598-476A-48DE-870D-0F9922191463}"/>
-    <hyperlink ref="A46" r:id="rId32" xr:uid="{3BA7327E-A081-4ECC-9D0C-B33B1165B5ED}"/>
-    <hyperlink ref="A47" r:id="rId33" xr:uid="{3C5FF18D-5550-42F5-8288-9125C2F14E95}"/>
-    <hyperlink ref="A48" r:id="rId34" xr:uid="{882D4E2A-999D-4239-962B-2F9F730C71B6}"/>
-    <hyperlink ref="A49" r:id="rId35" xr:uid="{D21348B3-5407-46EF-AAAD-C718D45658C4}"/>
-    <hyperlink ref="A50" r:id="rId36" xr:uid="{37783EC6-1342-4337-98B3-CD1AE364B241}"/>
-    <hyperlink ref="A51" r:id="rId37" xr:uid="{250E67A8-5AD7-47D8-B045-E2B395B5CD1E}"/>
-    <hyperlink ref="A52" r:id="rId38" xr:uid="{320D5FA2-BFB7-4526-B098-DB3F9FEB0CBA}"/>
-    <hyperlink ref="A54" r:id="rId39" xr:uid="{6330E2D8-B2DE-4DBE-920E-60CAD6165CD4}"/>
-    <hyperlink ref="A55" r:id="rId40" xr:uid="{8F8E4823-9F3F-473E-84A3-9070CE6CF901}"/>
-    <hyperlink ref="A56" r:id="rId41" xr:uid="{FC939245-BC0F-4511-BC92-35B9AA45E2C5}"/>
-    <hyperlink ref="A57" r:id="rId42" xr:uid="{353BDE3A-CE05-42E3-8466-63A536BB339C}"/>
-    <hyperlink ref="A58" r:id="rId43" xr:uid="{99083556-E41A-4ECD-8EDB-9D3161B3EE9E}"/>
-    <hyperlink ref="A59" r:id="rId44" xr:uid="{D4C81331-12D3-4405-BF35-36FE75706BBD}"/>
-    <hyperlink ref="A60" r:id="rId45" xr:uid="{8EB0F586-7CF5-4AF6-BEF9-D68B5ECFBFD1}"/>
-    <hyperlink ref="A17" r:id="rId46" xr:uid="{D6254114-1161-43E2-93FE-7ECA5D7A4505}"/>
-    <hyperlink ref="A53" r:id="rId47" xr:uid="{2038710C-A636-43FF-8C2E-1A54462FF381}"/>
-    <hyperlink ref="A39" r:id="rId48" xr:uid="{A2E4D26B-FF91-4F0D-91E6-41E37CCA9759}"/>
-    <hyperlink ref="A38" r:id="rId49" xr:uid="{8341BB43-1C12-4274-9CE1-B6445B6018DD}"/>
+    <hyperlink ref="A44" r:id="rId29" xr:uid="{F8300844-A5C0-4374-88FC-6A166FF8545B}"/>
+    <hyperlink ref="A45" r:id="rId30" xr:uid="{69C67621-4607-4728-B3DE-1DCEAB951C25}"/>
+    <hyperlink ref="A46" r:id="rId31" xr:uid="{45004598-476A-48DE-870D-0F9922191463}"/>
+    <hyperlink ref="A47" r:id="rId32" xr:uid="{3BA7327E-A081-4ECC-9D0C-B33B1165B5ED}"/>
+    <hyperlink ref="A48" r:id="rId33" xr:uid="{3C5FF18D-5550-42F5-8288-9125C2F14E95}"/>
+    <hyperlink ref="A49" r:id="rId34" xr:uid="{882D4E2A-999D-4239-962B-2F9F730C71B6}"/>
+    <hyperlink ref="A50" r:id="rId35" xr:uid="{D21348B3-5407-46EF-AAAD-C718D45658C4}"/>
+    <hyperlink ref="A52" r:id="rId36" xr:uid="{250E67A8-5AD7-47D8-B045-E2B395B5CD1E}"/>
+    <hyperlink ref="A53" r:id="rId37" xr:uid="{320D5FA2-BFB7-4526-B098-DB3F9FEB0CBA}"/>
+    <hyperlink ref="A57" r:id="rId38" xr:uid="{6330E2D8-B2DE-4DBE-920E-60CAD6165CD4}"/>
+    <hyperlink ref="A58" r:id="rId39" xr:uid="{8F8E4823-9F3F-473E-84A3-9070CE6CF901}"/>
+    <hyperlink ref="A59" r:id="rId40" xr:uid="{FC939245-BC0F-4511-BC92-35B9AA45E2C5}"/>
+    <hyperlink ref="A60" r:id="rId41" xr:uid="{353BDE3A-CE05-42E3-8466-63A536BB339C}"/>
+    <hyperlink ref="A61" r:id="rId42" xr:uid="{99083556-E41A-4ECD-8EDB-9D3161B3EE9E}"/>
+    <hyperlink ref="A62" r:id="rId43" xr:uid="{D4C81331-12D3-4405-BF35-36FE75706BBD}"/>
+    <hyperlink ref="A63" r:id="rId44" xr:uid="{8EB0F586-7CF5-4AF6-BEF9-D68B5ECFBFD1}"/>
+    <hyperlink ref="A17" r:id="rId45" xr:uid="{D6254114-1161-43E2-93FE-7ECA5D7A4505}"/>
+    <hyperlink ref="A56" r:id="rId46" xr:uid="{2038710C-A636-43FF-8C2E-1A54462FF381}"/>
+    <hyperlink ref="A39" r:id="rId47" xr:uid="{A2E4D26B-FF91-4F0D-91E6-41E37CCA9759}"/>
+    <hyperlink ref="A38" r:id="rId48" xr:uid="{8341BB43-1C12-4274-9CE1-B6445B6018DD}"/>
+    <hyperlink ref="A23" r:id="rId49" xr:uid="{9772E0D8-1C5B-4FEE-88E1-5AE2566C0C56}"/>
+    <hyperlink ref="A43" r:id="rId50" xr:uid="{8E639BE4-A752-4C0C-BA39-E56EF6C8379C}"/>
+    <hyperlink ref="A51" r:id="rId51" xr:uid="{7B728A52-5DFD-439F-8E9E-6662641D9F54}"/>
+    <hyperlink ref="A54" r:id="rId52" xr:uid="{358A797A-F234-40FC-8ABB-E8DB4AD6543E}"/>
+    <hyperlink ref="A55" r:id="rId53" xr:uid="{E296E685-1CD8-4F1A-839F-325749B13FD4}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2047,9 +2096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CC248E-3C21-4DCC-815C-0A279EC017CB}">
   <dimension ref="A1:B225"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3858,11 +3905,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B334" xr:uid="{94CC248E-3C21-4DCC-815C-0A279EC017CB}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B225">
-      <sortCondition ref="A1:A334"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:B334" xr:uid="{94CC248E-3C21-4DCC-815C-0A279EC017CB}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Acessos.xlsx
+++ b/Acessos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unosilva\Documents\Projeto Meli Awards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4147E73E-7B5E-42C4-BED8-9326501F3426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552AEDEE-4C3F-4E1A-8E4B-DCFC3F617628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6876E12-98B3-4F33-AF0F-22A5C1C00DD2}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="295">
   <si>
     <t>E-mail</t>
   </si>
@@ -848,9 +848,6 @@
   </si>
   <si>
     <t>hiolanda.tavares@mercadolivre.com</t>
-  </si>
-  <si>
-    <t>FACILITIES  &amp; MANUTENÇAO</t>
   </si>
   <si>
     <t>PRODUTOS FINTECH</t>
@@ -1328,13 +1325,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2939FEBB-D56D-4D0D-8366-6ACEEBE32804}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1519,7 +1517,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B17" t="s">
         <v>159</v>
@@ -1585,7 +1583,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B23" t="s">
         <v>159</v>
@@ -1742,12 +1740,12 @@
         <v>159</v>
       </c>
       <c r="C37" t="s">
-        <v>269</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B38" t="s">
         <v>159</v>
@@ -1758,7 +1756,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B39" t="s">
         <v>159</v>
@@ -1769,7 +1767,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B40" t="s">
         <v>158</v>
@@ -1780,7 +1778,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B41" t="s">
         <v>158</v>
@@ -1791,7 +1789,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B42" t="s">
         <v>158</v>
@@ -1802,7 +1800,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B43" t="s">
         <v>158</v>
@@ -1813,7 +1811,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B44" t="s">
         <v>158</v>
@@ -1824,7 +1822,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B45" t="s">
         <v>158</v>
@@ -1835,7 +1833,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B46" t="s">
         <v>158</v>
@@ -1846,7 +1844,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B47" t="s">
         <v>158</v>
@@ -1857,7 +1855,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B48" t="s">
         <v>158</v>
@@ -1868,7 +1866,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B49" t="s">
         <v>158</v>
@@ -1879,7 +1877,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B50" t="s">
         <v>158</v>
@@ -1890,7 +1888,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B51" t="s">
         <v>158</v>
@@ -1901,7 +1899,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B52" t="s">
         <v>158</v>
@@ -1912,7 +1910,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B53" t="s">
         <v>158</v>
@@ -1923,7 +1921,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B54" t="s">
         <v>158</v>
@@ -1934,7 +1932,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B55" t="s">
         <v>158</v>
@@ -1945,7 +1943,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B56" t="s">
         <v>158</v>
@@ -1956,7 +1954,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B57" t="s">
         <v>158</v>
@@ -1967,7 +1965,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B58" t="s">
         <v>158</v>
@@ -1978,7 +1976,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B59" t="s">
         <v>158</v>
@@ -1989,7 +1987,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B60" t="s">
         <v>158</v>
@@ -2000,7 +1998,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B61" t="s">
         <v>158</v>
@@ -2011,24 +2009,24 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B62" t="s">
         <v>158</v>
       </c>
       <c r="C62" t="s">
-        <v>269</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B63" t="s">
         <v>158</v>
       </c>
       <c r="C63" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2094,9 +2092,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CC248E-3C21-4DCC-815C-0A279EC017CB}">
-  <dimension ref="A1:B225"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:B334"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2112,7 +2113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2128,7 +2129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2136,7 +2137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2144,7 +2145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2152,7 +2153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2160,7 +2161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2168,7 +2169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2176,7 +2177,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2192,7 +2193,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2200,7 +2201,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2208,7 +2209,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2216,7 +2217,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2224,7 +2225,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2232,7 +2233,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>173</v>
       </c>
@@ -2240,7 +2241,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>173</v>
       </c>
@@ -2248,7 +2249,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>173</v>
       </c>
@@ -2256,7 +2257,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>173</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -2272,7 +2273,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>231</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>231</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>231</v>
       </c>
@@ -2296,7 +2297,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>231</v>
       </c>
@@ -2304,7 +2305,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>231</v>
       </c>
@@ -2312,7 +2313,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>231</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>231</v>
       </c>
@@ -2328,7 +2329,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>231</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>231</v>
       </c>
@@ -2344,7 +2345,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>231</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>231</v>
       </c>
@@ -2360,7 +2361,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>231</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -2416,7 +2417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2424,7 +2425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -2448,7 +2449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -2456,7 +2457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -2472,7 +2473,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -2480,7 +2481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -2488,7 +2489,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -2512,7 +2513,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -2520,7 +2521,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -2528,7 +2529,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -2536,7 +2537,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -2544,7 +2545,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -2552,7 +2553,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -2560,7 +2561,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -2568,7 +2569,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -2584,7 +2585,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>31</v>
       </c>
@@ -2592,7 +2593,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -2600,7 +2601,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -2608,7 +2609,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -2616,7 +2617,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -2624,7 +2625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>129</v>
       </c>
@@ -2640,7 +2641,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -2648,7 +2649,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>129</v>
       </c>
@@ -2672,7 +2673,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>129</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>129</v>
       </c>
@@ -2688,7 +2689,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>129</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>129</v>
       </c>
@@ -2704,7 +2705,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>129</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>129</v>
       </c>
@@ -2720,7 +2721,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>129</v>
       </c>
@@ -2728,7 +2729,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>129</v>
       </c>
@@ -2736,7 +2737,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>129</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>129</v>
       </c>
@@ -2752,7 +2753,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>129</v>
       </c>
@@ -2760,7 +2761,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>129</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>129</v>
       </c>
@@ -2776,7 +2777,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>129</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>129</v>
       </c>
@@ -2792,7 +2793,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>129</v>
       </c>
@@ -2800,7 +2801,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>129</v>
       </c>
@@ -2808,7 +2809,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>129</v>
       </c>
@@ -2816,7 +2817,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>129</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>129</v>
       </c>
@@ -2832,7 +2833,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>129</v>
       </c>
@@ -2840,7 +2841,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>37</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>37</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>37</v>
       </c>
@@ -2864,7 +2865,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>37</v>
       </c>
@@ -2872,7 +2873,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>37</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>37</v>
       </c>
@@ -2888,7 +2889,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>37</v>
       </c>
@@ -2896,7 +2897,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>37</v>
       </c>
@@ -2904,7 +2905,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>37</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>37</v>
       </c>
@@ -2920,7 +2921,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>37</v>
       </c>
@@ -2928,7 +2929,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>37</v>
       </c>
@@ -2936,7 +2937,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>37</v>
       </c>
@@ -2944,7 +2945,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>37</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>37</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>37</v>
       </c>
@@ -2968,7 +2969,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>37</v>
       </c>
@@ -2976,7 +2977,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>37</v>
       </c>
@@ -2984,7 +2985,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>37</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>37</v>
       </c>
@@ -3000,7 +3001,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>37</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>37</v>
       </c>
@@ -3016,7 +3017,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>37</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>37</v>
       </c>
@@ -3032,7 +3033,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>37</v>
       </c>
@@ -3040,7 +3041,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>224</v>
       </c>
@@ -3048,7 +3049,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>224</v>
       </c>
@@ -3056,7 +3057,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>224</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>224</v>
       </c>
@@ -3072,7 +3073,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>224</v>
       </c>
@@ -3080,7 +3081,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>224</v>
       </c>
@@ -3088,7 +3089,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>60</v>
       </c>
@@ -3096,7 +3097,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>60</v>
       </c>
@@ -3104,7 +3105,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>60</v>
       </c>
@@ -3112,7 +3113,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>60</v>
       </c>
@@ -3120,7 +3121,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>60</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>60</v>
       </c>
@@ -3136,7 +3137,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>60</v>
       </c>
@@ -3144,7 +3145,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>60</v>
       </c>
@@ -3152,7 +3153,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>60</v>
       </c>
@@ -3160,7 +3161,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>60</v>
       </c>
@@ -3168,7 +3169,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>60</v>
       </c>
@@ -3176,7 +3177,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>60</v>
       </c>
@@ -3184,7 +3185,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>60</v>
       </c>
@@ -3192,7 +3193,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>60</v>
       </c>
@@ -3200,7 +3201,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>60</v>
       </c>
@@ -3208,7 +3209,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>60</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>60</v>
       </c>
@@ -3224,7 +3225,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>60</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>70</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>70</v>
       </c>
@@ -3248,7 +3249,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>70</v>
       </c>
@@ -3256,7 +3257,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>70</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>70</v>
       </c>
@@ -3272,7 +3273,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>70</v>
       </c>
@@ -3280,7 +3281,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>70</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>70</v>
       </c>
@@ -3296,7 +3297,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>70</v>
       </c>
@@ -3304,7 +3305,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>70</v>
       </c>
@@ -3312,7 +3313,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>70</v>
       </c>
@@ -3320,7 +3321,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>70</v>
       </c>
@@ -3328,7 +3329,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>70</v>
       </c>
@@ -3336,7 +3337,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>70</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>70</v>
       </c>
@@ -3352,7 +3353,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>70</v>
       </c>
@@ -3360,7 +3361,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>70</v>
       </c>
@@ -3368,7 +3369,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>70</v>
       </c>
@@ -3376,7 +3377,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>70</v>
       </c>
@@ -3384,7 +3385,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>70</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>106</v>
       </c>
@@ -3400,7 +3401,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>106</v>
       </c>
@@ -3408,7 +3409,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>106</v>
       </c>
@@ -3416,7 +3417,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>106</v>
       </c>
@@ -3424,7 +3425,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>106</v>
       </c>
@@ -3432,7 +3433,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>106</v>
       </c>
@@ -3440,7 +3441,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>106</v>
       </c>
@@ -3448,7 +3449,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>106</v>
       </c>
@@ -3456,7 +3457,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>106</v>
       </c>
@@ -3464,7 +3465,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>106</v>
       </c>
@@ -3472,7 +3473,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>106</v>
       </c>
@@ -3480,7 +3481,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>106</v>
       </c>
@@ -3488,7 +3489,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>106</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>106</v>
       </c>
@@ -3504,7 +3505,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>106</v>
       </c>
@@ -3512,7 +3513,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>106</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>106</v>
       </c>
@@ -3528,7 +3529,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>106</v>
       </c>
@@ -3536,7 +3537,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>106</v>
       </c>
@@ -3544,7 +3545,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>106</v>
       </c>
@@ -3552,7 +3553,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>106</v>
       </c>
@@ -3560,7 +3561,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>106</v>
       </c>
@@ -3568,7 +3569,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>106</v>
       </c>
@@ -3576,7 +3577,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>106</v>
       </c>
@@ -3584,7 +3585,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>71</v>
       </c>
@@ -3592,7 +3593,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>71</v>
       </c>
@@ -3600,7 +3601,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>71</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>71</v>
       </c>
@@ -3616,7 +3617,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>71</v>
       </c>
@@ -3624,7 +3625,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>71</v>
       </c>
@@ -3632,7 +3633,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>71</v>
       </c>
@@ -3640,7 +3641,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>71</v>
       </c>
@@ -3648,7 +3649,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>71</v>
       </c>
@@ -3656,7 +3657,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>71</v>
       </c>
@@ -3664,7 +3665,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>71</v>
       </c>
@@ -3672,7 +3673,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>71</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>71</v>
       </c>
@@ -3688,7 +3689,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>216</v>
       </c>
@@ -3696,7 +3697,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -3704,7 +3705,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>216</v>
       </c>
@@ -3712,7 +3713,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>216</v>
       </c>
@@ -3720,7 +3721,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>216</v>
       </c>
@@ -3728,7 +3729,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>84</v>
       </c>
@@ -3736,7 +3737,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>84</v>
       </c>
@@ -3744,7 +3745,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>84</v>
       </c>
@@ -3752,7 +3753,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>84</v>
       </c>
@@ -3760,7 +3761,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>84</v>
       </c>
@@ -3768,7 +3769,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>84</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>84</v>
       </c>
@@ -3784,7 +3785,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>84</v>
       </c>
@@ -3792,7 +3793,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>84</v>
       </c>
@@ -3800,7 +3801,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>84</v>
       </c>
@@ -3808,7 +3809,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>84</v>
       </c>
@@ -3816,7 +3817,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>84</v>
       </c>
@@ -3824,7 +3825,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>84</v>
       </c>
@@ -3832,7 +3833,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>84</v>
       </c>
@@ -3840,7 +3841,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>97</v>
       </c>
@@ -3848,7 +3849,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>97</v>
       </c>
@@ -3856,7 +3857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>97</v>
       </c>
@@ -3864,7 +3865,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>97</v>
       </c>
@@ -3872,7 +3873,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>97</v>
       </c>
@@ -3880,7 +3881,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>97</v>
       </c>
@@ -3888,7 +3889,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>97</v>
       </c>
@@ -3896,7 +3897,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>97</v>
       </c>
@@ -3904,8 +3905,123 @@
         <v>105</v>
       </c>
     </row>
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="285" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="286" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="287" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="288" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="289" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="290" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="291" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="292" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="293" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="294" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="295" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="296" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="297" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="298" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="299" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="300" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="301" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="302" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="303" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="304" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="305" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="306" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="307" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="308" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="309" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="310" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="311" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="312" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="313" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="314" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="315" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="316" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="317" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="318" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="319" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="320" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="321" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="322" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="323" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="324" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="325" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="326" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="327" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="328" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="329" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="330" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="331" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="332" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="333" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="334" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:B334" xr:uid="{94CC248E-3C21-4DCC-815C-0A279EC017CB}"/>
+  <autoFilter ref="A1:B334" xr:uid="{94CC248E-3C21-4DCC-815C-0A279EC017CB}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="FACILITIES &amp; MANUTENÇAO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Acessos.xlsx
+++ b/Acessos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unosilva\Documents\Projeto Meli Awards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unosilva\Documents\Projeto Meli Awards - v02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552AEDEE-4C3F-4E1A-8E4B-DCFC3F617628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B793812-987E-40BC-9E35-D176190305EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6876E12-98B3-4F33-AF0F-22A5C1C00DD2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F6876E12-98B3-4F33-AF0F-22A5C1C00DD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Acessos" sheetId="1" r:id="rId1"/>
@@ -1325,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2939FEBB-D56D-4D0D-8366-6ACEEBE32804}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection sqref="A1:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2087,16 +2087,16 @@
     <hyperlink ref="A55" r:id="rId53" xr:uid="{E296E685-1CD8-4F1A-839F-325749B13FD4}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CC248E-3C21-4DCC-815C-0A279EC017CB}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:B334"/>
+  <dimension ref="A1:B225"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection sqref="A1:B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2113,7 +2113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>173</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>173</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>173</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>173</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>231</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>231</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>231</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>231</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>231</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>231</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>231</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>231</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>231</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>231</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>231</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>231</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>31</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>129</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>129</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>129</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>129</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>129</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>129</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>129</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>129</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>129</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>129</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>129</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>129</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>129</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>129</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>129</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>129</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>129</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>129</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>129</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>129</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>129</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>129</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>129</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>37</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>37</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>37</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>37</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>37</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>37</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>37</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>37</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>37</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>37</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>37</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>37</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>37</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>37</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>37</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>37</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>37</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>37</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>37</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>37</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>37</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>37</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>37</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>37</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>37</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>224</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>224</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>224</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>224</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>224</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>224</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>60</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>60</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>60</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>60</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>60</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>60</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>60</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>60</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>60</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>60</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>60</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>60</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>60</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>60</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>60</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>60</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>60</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>60</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>70</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>70</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>70</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>70</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>70</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>70</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>70</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>70</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>70</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>70</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>70</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>70</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>70</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>70</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>70</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>70</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>70</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>70</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>70</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>70</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>106</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>106</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>106</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>106</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>106</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>106</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>106</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>106</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>106</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>106</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>106</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>106</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>106</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>106</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>106</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>106</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>106</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>106</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>106</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>106</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>106</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>106</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>106</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>106</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>71</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>71</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>71</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>71</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>71</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>71</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>71</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>71</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>71</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>71</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>71</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>71</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>71</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>216</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>216</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>216</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>216</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>84</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>84</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>84</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>84</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>84</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>84</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>84</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>84</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>84</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>84</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>84</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>84</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>84</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>84</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>97</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>97</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>97</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>97</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>97</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>97</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>97</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>97</v>
       </c>
@@ -3905,123 +3905,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="285" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="286" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="287" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="288" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="289" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="290" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="291" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="292" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="293" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="294" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="295" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="296" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="297" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="298" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="299" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="300" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="301" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="302" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="303" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="304" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="305" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="306" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="307" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="308" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="309" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="310" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="311" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="312" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="313" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="314" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="315" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="316" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="317" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="318" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="319" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="320" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="321" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="322" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="323" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="324" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="325" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="326" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="327" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="328" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="329" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="330" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="331" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="332" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="333" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="334" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:B334" xr:uid="{94CC248E-3C21-4DCC-815C-0A279EC017CB}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="FACILITIES &amp; MANUTENÇAO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B334" xr:uid="{94CC248E-3C21-4DCC-815C-0A279EC017CB}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Acessos.xlsx
+++ b/Acessos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unosilva\Documents\Projeto Meli Awards - v02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unosilva\Documents\Projeto Meli Awards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B793812-987E-40BC-9E35-D176190305EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552AEDEE-4C3F-4E1A-8E4B-DCFC3F617628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F6876E12-98B3-4F33-AF0F-22A5C1C00DD2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6876E12-98B3-4F33-AF0F-22A5C1C00DD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Acessos" sheetId="1" r:id="rId1"/>
@@ -1325,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2939FEBB-D56D-4D0D-8366-6ACEEBE32804}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection sqref="A1:C63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2087,16 +2087,16 @@
     <hyperlink ref="A55" r:id="rId53" xr:uid="{E296E685-1CD8-4F1A-839F-325749B13FD4}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CC248E-3C21-4DCC-815C-0A279EC017CB}">
-  <dimension ref="A1:B225"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:B334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection sqref="A1:B225"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2113,7 +2113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>173</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>173</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>173</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>173</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>231</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>231</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>231</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>231</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>231</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>231</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>231</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>231</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>231</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>231</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>231</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>231</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>31</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>129</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>129</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>129</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>129</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>129</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>129</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>129</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>129</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>129</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>129</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>129</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>129</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>129</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>129</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>129</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>129</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>129</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>129</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>129</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>129</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>129</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>129</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>129</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>37</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>37</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>37</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>37</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>37</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>37</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>37</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>37</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>37</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>37</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>37</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>37</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>37</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>37</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>37</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>37</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>37</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>37</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>37</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>37</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>37</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>37</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>37</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>37</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>37</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>224</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>224</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>224</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>224</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>224</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>224</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>60</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>60</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>60</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>60</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>60</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>60</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>60</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>60</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>60</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>60</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>60</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>60</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>60</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>60</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>60</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>60</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>60</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>60</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>70</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>70</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>70</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>70</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>70</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>70</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>70</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>70</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>70</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>70</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>70</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>70</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>70</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>70</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>70</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>70</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>70</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>70</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>70</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>70</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>106</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>106</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>106</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>106</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>106</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>106</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>106</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>106</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>106</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>106</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>106</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>106</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>106</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>106</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>106</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>106</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>106</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>106</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>106</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>106</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>106</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>106</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>106</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>106</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>71</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>71</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>71</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>71</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>71</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>71</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>71</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>71</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>71</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>71</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>71</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>71</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>71</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>216</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>216</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>216</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>216</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>84</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>84</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>84</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>84</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>84</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>84</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>84</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>84</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>84</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>84</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>84</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>84</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>84</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>84</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>97</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>97</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>97</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>97</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>97</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>97</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>97</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>97</v>
       </c>
@@ -3905,8 +3905,123 @@
         <v>105</v>
       </c>
     </row>
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="285" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="286" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="287" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="288" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="289" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="290" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="291" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="292" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="293" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="294" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="295" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="296" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="297" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="298" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="299" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="300" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="301" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="302" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="303" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="304" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="305" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="306" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="307" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="308" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="309" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="310" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="311" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="312" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="313" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="314" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="315" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="316" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="317" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="318" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="319" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="320" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="321" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="322" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="323" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="324" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="325" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="326" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="327" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="328" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="329" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="330" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="331" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="332" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="333" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="334" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:B334" xr:uid="{94CC248E-3C21-4DCC-815C-0A279EC017CB}"/>
+  <autoFilter ref="A1:B334" xr:uid="{94CC248E-3C21-4DCC-815C-0A279EC017CB}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="FACILITIES &amp; MANUTENÇAO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
